--- a/DAWITOWN_base_results/Post processed 2.xlsx
+++ b/DAWITOWN_base_results/Post processed 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmi002\Desktop\Python WIP\thesis_project\DAWITOWN_base_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70447EE9-2BC3-4387-BD58-CEB277AEB755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -71,12 +72,12 @@
     <sheet name="e08" sheetId="57" r:id="rId57"/>
     <sheet name="f01" sheetId="58" r:id="rId58"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="464">
   <si>
     <t>Summary of results for tank connected to each node</t>
   </si>
@@ -1484,18 +1485,48 @@
     <t>Max</t>
   </si>
   <si>
-    <t>30 year life</t>
+    <t>20 year life</t>
+  </si>
+  <si>
+    <r>
+      <t>Tank Volume
+(m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1508,16 +1539,62 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1540,11 +1617,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1557,31 +1781,82 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -1659,7 +1934,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1672,68 +1947,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Results</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> for varying balancing tank location</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1788,6 +2002,35 @@
                   <c:y val="9.722222222222214E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" u="sng"/>
+                      <a:t>Minimum:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{D0E22FEE-8E49-4F77-86D3-B01262B9E35E}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{76DDC5C9-DE39-418D-A1BD-35B24F078DB2}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -1796,7 +2039,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3687-4EC5-B644-6C6D33439988}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1861,12 +2108,177 @@
             <c:strRef>
               <c:f>Summary!$B$20:$B$76</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>a01</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>a02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>a03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>a10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>a14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>a16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>a17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>a19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>a15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>b01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>a18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>a09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>a12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>a20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>b02</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>c01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>a11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>e01</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>c02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>b03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>c05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>e02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>a21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>c03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>d01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>c04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>b04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>e03</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>f01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>b06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>c07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>b09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>d03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>b07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>e04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>d05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>b05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>e06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>b10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>d06</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>d02</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>a13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>e07</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>e05</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>b08</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>b12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>d08</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>e08</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>d04</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>b11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>d07</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>c06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1875,18 +2287,188 @@
             <c:numRef>
               <c:f>Summary!$V$20:$V$76</c:f>
               <c:numCache>
-                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>413501.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>402359.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396728.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394137.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>392462.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405207.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>406475.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411470.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>409695.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>387875.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386786.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390349.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>382128.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>407547.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378738.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>397925.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>409714.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>420909.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393009.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>387358.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>378985.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>413287.93</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>383487.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>385469.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>393046.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>391434.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389120.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400800.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>392563.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>391724.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>396620.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>400787.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>397710.96</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>402268.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>404379.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400849.86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>403047.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>395400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>408750.15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>406213.46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>402885.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>409428.01</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>402939.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>405971.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>405315.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397576.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>424514.51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>414134.81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>414899.57</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>418565.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>426781.83</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>413119.79</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>418994.01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>413074.46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>418695.91</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>421092.11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>395888.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3687-4EC5-B644-6C6D33439988}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1939,17 +2521,187 @@
               <c:f>Summary!$H$20:$H$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>1502.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1438.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1405.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1381.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1388.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1406.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1422.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1393.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1354.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1348.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1324.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1283.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1379.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1214.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1340.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1389.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1415.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1308.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1228.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1120.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1395.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1123.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1144.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1236.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1155.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1182.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1320.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1153.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1143.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1158.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1251.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1199.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1181.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1259.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1212.49</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1257.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1177.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1262.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1214.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1184.82</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1264.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1179.22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1263.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1189.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1205.44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1421.57</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1240.74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1240.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1297.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1359.08</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1216.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1253.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1227.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1276.69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1286.73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1189.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3687-4EC5-B644-6C6D33439988}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2052,7 +2804,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2880000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2085,20 +2837,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2125,7 +2863,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2155,7 +2892,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2195,6 +2932,7 @@
         <c:crossAx val="329514584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="329514976"/>
@@ -2228,13 +2966,21 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Consumption (kWh/day)</a:t>
+                  <a:t> Consumption </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>(kWh/day)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2304,6 +3050,7 @@
         <c:crossAx val="329515368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="400"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="329515368"/>
@@ -2409,7 +3156,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2422,63 +3169,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>WDN Energy Cost over 30y design life</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2522,14 +3213,19 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5151339.8999999994</c:v>
+                  <c:v>3434226.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6911331.21</c:v>
+                  <c:v>4607554.1399999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A85-42E1-BF59-672684C6446E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2550,6 +3246,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Best</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> vs worst tank location</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2598,7 +3354,6 @@
         <c:axId val="483000640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2650,7 +3405,7 @@
         <c:crossAx val="482999856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="3500000"/>
+        <c:majorUnit val="2500000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3815,7 +4570,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3845,7 +4606,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3864,41 +4631,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:V76" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A19:V76">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1120.1"/>
-        <filter val="1502.79"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A19:V76" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A19:V76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A20:V76">
     <sortCondition ref="C19:C76"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Node"/>
-    <tableColumn id="3" name="Max Water Age_x000a_(h)"/>
-    <tableColumn id="4" name="Duty Head_x000a_(m)"/>
-    <tableColumn id="5" name="Duty Flow_x000a_(L/s)"/>
-    <tableColumn id="6" name="Actual average pumped flow_x000a_(L/s)"/>
-    <tableColumn id="7" name="Cost_x000a_(€ /day)"/>
-    <tableColumn id="8" name="Energy_x000a_(kWh/day)"/>
-    <tableColumn id="9" name="Tank Elevation_x000a_(metres above sea level)"/>
-    <tableColumn id="10" name="Tank height above ground_x000a_(metres above nearest node)"/>
-    <tableColumn id="11" name="Tank Volume_x000a_(m3)"/>
-    <tableColumn id="12" name="Minimum Pressure_x000a_(mwc)"/>
-    <tableColumn id="13" name="Critical Hour_x000a_(hrs)"/>
-    <tableColumn id="14" name="Critical Node"/>
-    <tableColumn id="15" name="Critical Pipes_x000a_(list)"/>
-    <tableColumn id="16" name="Pump Investment Cost_x000a_(Capital Investment)" dataDxfId="6"/>
-    <tableColumn id="17" name="Tank Investment Cost_x000a_(Capital Investment)" dataDxfId="5"/>
-    <tableColumn id="18" name="Total Pipe Replacement Cost_x000a_(Capital Investment)" dataDxfId="4"/>
-    <tableColumn id="19" name="Total Investment Cost_x000a_(Grand Total)" dataDxfId="3"/>
-    <tableColumn id="20" name="Maintenance Cost_x000a_(pa)" dataDxfId="2"/>
-    <tableColumn id="21" name="Annuity_x000a_(pa)" dataDxfId="1"/>
-    <tableColumn id="22" name="Total Annual Expenditure" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Node"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Max Water Age_x000a_(h)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duty Head_x000a_(m)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duty Flow_x000a_(L/s)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Actual average pumped flow_x000a_(L/s)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cost_x000a_(€ /day)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Energy_x000a_(kWh/day)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tank Elevation_x000a_(metres above sea level)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tank height above ground_x000a_(metres above nearest node)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Tank Volume_x000a_(m3)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Minimum Pressure_x000a_(mwc)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Critical Hour_x000a_(hrs)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Critical Node"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Critical Pipes_x000a_(list)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Pump Investment Cost_x000a_(Capital Investment)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Tank Investment Cost_x000a_(Capital Investment)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Total Pipe Replacement Cost_x000a_(Capital Investment)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Total Investment Cost_x000a_(Grand Total)" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Maintenance Cost_x000a_(pa)" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Annuity_x000a_(pa)" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Total Annual Expenditure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4188,11 +4948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4205,14 +4965,33 @@
     <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="41" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" customWidth="1"/>
+    <col min="35" max="35" width="18" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" customWidth="1"/>
+    <col min="39" max="39" width="14.140625" customWidth="1"/>
+    <col min="40" max="40" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.7109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:40" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>459</v>
       </c>
@@ -4279,8 +5058,41 @@
       <c r="V19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AD19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -4299,8 +5111,8 @@
       <c r="F20">
         <v>102.79</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
+      <c r="G20" s="5">
+        <v>631.16999999999996</v>
       </c>
       <c r="H20">
         <v>1502.79</v>
@@ -4326,29 +5138,62 @@
       <c r="O20" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <v>708327.68</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="5">
         <v>163045</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="5">
         <v>1778878.01</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>28032.69</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="5">
         <v>155090.69</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="6">
         <v>413501.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>46.56</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AH20" s="11">
+        <v>102.79</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>631.16999999999996</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>1502.79</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>42.62</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>42.62</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>1469.6</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -4367,8 +5212,8 @@
       <c r="F21">
         <v>102.78</v>
       </c>
-      <c r="G21" t="s">
-        <v>31</v>
+      <c r="G21" s="5">
+        <v>604.15</v>
       </c>
       <c r="H21">
         <v>1438.46</v>
@@ -4394,29 +5239,62 @@
       <c r="O21" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <v>694877.43</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="5">
         <v>163045</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="5">
         <v>1765427.77</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>27925.09</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="5">
         <v>153918.04</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="6">
         <v>402359.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE21" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>44.57</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH21" s="16">
+        <v>102.78</v>
+      </c>
+      <c r="AI21" s="17">
+        <v>604.15</v>
+      </c>
+      <c r="AJ21" s="18">
+        <v>1438.46</v>
+      </c>
+      <c r="AK21" s="16">
+        <v>39.57</v>
+      </c>
+      <c r="AL21" s="16">
+        <v>39.57</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN21" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -4435,8 +5313,8 @@
       <c r="F22">
         <v>102.78</v>
       </c>
-      <c r="G22" t="s">
-        <v>40</v>
+      <c r="G22" s="5">
+        <v>590.5</v>
       </c>
       <c r="H22">
         <v>1405.96</v>
@@ -4462,29 +5340,66 @@
       <c r="O22" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <v>688065.9</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="5">
         <v>163045</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="5">
         <v>1758616.23</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>27870.6</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="5">
         <v>153324.18</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="6">
         <v>396728.17</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <f>COUNT(Table1[Total Annual Expenditure])/12</f>
+        <v>4.75</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>43.57</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH22" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI22" s="22">
+        <v>590.5</v>
+      </c>
+      <c r="AJ22" s="23">
+        <v>1405.96</v>
+      </c>
+      <c r="AK22" s="21">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="AL22" s="21">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="AM22" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN22" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -4503,8 +5418,8 @@
       <c r="F23">
         <v>102.78</v>
       </c>
-      <c r="G23" t="s">
-        <v>49</v>
+      <c r="G23" s="5">
+        <v>584.22</v>
       </c>
       <c r="H23">
         <v>1391</v>
@@ -4530,29 +5445,62 @@
       <c r="O23" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <v>684940.42</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="5">
         <v>163045</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="5">
         <v>1755490.76</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>27845.599999999999</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="5">
         <v>153051.68</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="6">
         <v>394137.66</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>43.1</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>102.78</v>
+      </c>
+      <c r="AI23" s="17">
+        <v>584.22</v>
+      </c>
+      <c r="AJ23" s="18">
+        <v>1391</v>
+      </c>
+      <c r="AK23" s="16">
+        <v>37.31</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>37.31</v>
+      </c>
+      <c r="AM23" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN23" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -4571,8 +5519,8 @@
       <c r="F24">
         <v>102.78</v>
       </c>
-      <c r="G24" t="s">
-        <v>53</v>
+      <c r="G24" s="5">
+        <v>580.16</v>
       </c>
       <c r="H24">
         <v>1381.33</v>
@@ -4598,29 +5546,62 @@
       <c r="O24" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <v>682913.74</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="5">
         <v>163045</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="5">
         <v>1753464.07</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>27829.38</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="5">
         <v>152874.99</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="6">
         <v>392462.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>42.8</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI24" s="22">
+        <v>580.16</v>
+      </c>
+      <c r="AJ24" s="23">
+        <v>1381.33</v>
+      </c>
+      <c r="AK24" s="21">
+        <v>36.85</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>36.85</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN24" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -4639,8 +5620,8 @@
       <c r="F25">
         <v>102.73</v>
       </c>
-      <c r="G25" t="s">
-        <v>57</v>
+      <c r="G25" s="5">
+        <v>583.36</v>
       </c>
       <c r="H25">
         <v>1388.96</v>
@@ -4666,29 +5647,62 @@
       <c r="O25" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <v>683745.3</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="5">
         <v>287760</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="5">
         <v>1879010.63</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>28459.61</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="5">
         <v>163820.71</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="6">
         <v>405207.79</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>43.04</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH25" s="16">
+        <v>102.73</v>
+      </c>
+      <c r="AI25" s="17">
+        <v>583.36</v>
+      </c>
+      <c r="AJ25" s="18">
+        <v>1388.96</v>
+      </c>
+      <c r="AK25" s="16">
+        <v>37.04</v>
+      </c>
+      <c r="AL25" s="16">
+        <v>37.04</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN25" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -4707,8 +5721,8 @@
       <c r="F26">
         <v>102.74</v>
       </c>
-      <c r="G26" t="s">
-        <v>44</v>
+      <c r="G26" s="5">
+        <v>590.71</v>
       </c>
       <c r="H26">
         <v>1406.45</v>
@@ -4734,29 +5748,62 @@
       <c r="O26" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="5">
         <v>688371.03</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="5">
         <v>267646</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="5">
         <v>1863522.37</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>28396.04</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="5">
         <v>162470.37</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="6">
         <v>406475.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>43.58</v>
+      </c>
+      <c r="AG26" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH26" s="21">
+        <v>102.74</v>
+      </c>
+      <c r="AI26" s="22">
+        <v>590.71</v>
+      </c>
+      <c r="AJ26" s="23">
+        <v>1406.45</v>
+      </c>
+      <c r="AK26" s="21">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="AL26" s="21">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="AM26" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN26" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -4775,8 +5822,8 @@
       <c r="F27">
         <v>102.74</v>
       </c>
-      <c r="G27" t="s">
-        <v>35</v>
+      <c r="G27" s="5">
+        <v>597.52</v>
       </c>
       <c r="H27">
         <v>1422.67</v>
@@ -4802,29 +5849,62 @@
       <c r="O27" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <v>692198.85</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="5">
         <v>290916</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="5">
         <v>1890620.19</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>28543.02</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="5">
         <v>164832.88</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="6">
         <v>411470.65</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>1.32</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>44.08</v>
+      </c>
+      <c r="AG27" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH27" s="16">
+        <v>102.74</v>
+      </c>
+      <c r="AI27" s="17">
+        <v>597.52</v>
+      </c>
+      <c r="AJ27" s="18">
+        <v>1422.67</v>
+      </c>
+      <c r="AK27" s="16">
+        <v>38.96</v>
+      </c>
+      <c r="AL27" s="16">
+        <v>38.96</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN27" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -4843,8 +5923,8 @@
       <c r="F28">
         <v>102.78</v>
       </c>
-      <c r="G28" t="s">
-        <v>67</v>
+      <c r="G28" s="5">
+        <v>585.13</v>
       </c>
       <c r="H28">
         <v>1393.17</v>
@@ -4870,29 +5950,62 @@
       <c r="O28" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <v>684038.01</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="5">
         <v>329133</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="5">
         <v>1920676.34</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>28668.82</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="5">
         <v>167453.32</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="6">
         <v>409695.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>43.19</v>
+      </c>
+      <c r="AG28" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI28" s="22">
+        <v>585.13</v>
+      </c>
+      <c r="AJ28" s="23">
+        <v>1393.17</v>
+      </c>
+      <c r="AK28" s="21">
+        <v>37.11</v>
+      </c>
+      <c r="AL28" s="21">
+        <v>37.11</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN28" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13</v>
       </c>
@@ -4911,8 +6024,8 @@
       <c r="F29">
         <v>102.81</v>
       </c>
-      <c r="G29" t="s">
-        <v>87</v>
+      <c r="G29" s="5">
+        <v>569.03</v>
       </c>
       <c r="H29">
         <v>1354.83</v>
@@ -4938,29 +6051,62 @@
       <c r="O29" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <v>677395.58</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="5">
         <v>163045</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="5">
         <v>1747945.91</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>27785.24</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="5">
         <v>152393.89000000001</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="6">
         <v>387875.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>41.98</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>569.03</v>
+      </c>
+      <c r="AJ29" s="18">
+        <v>1354.83</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>35.6</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>35.6</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN29" s="19">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -4979,8 +6125,8 @@
       <c r="F30">
         <v>102.78</v>
       </c>
-      <c r="G30" t="s">
-        <v>96</v>
+      <c r="G30" s="5">
+        <v>566.41999999999996</v>
       </c>
       <c r="H30">
         <v>1348.61</v>
@@ -5006,29 +6152,62 @@
       <c r="O30" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="5">
         <v>675983.7</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="5">
         <v>163045</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="5">
         <v>1746534.04</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>27773.94</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="5">
         <v>152270.79999999999</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="6">
         <v>386786.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD30" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE30" s="21">
+        <v>1.49</v>
+      </c>
+      <c r="AF30" s="21">
+        <v>41.79</v>
+      </c>
+      <c r="AG30" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH30" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI30" s="22">
+        <v>566.41999999999996</v>
+      </c>
+      <c r="AJ30" s="23">
+        <v>1348.61</v>
+      </c>
+      <c r="AK30" s="21">
+        <v>35.28</v>
+      </c>
+      <c r="AL30" s="21">
+        <v>35.28</v>
+      </c>
+      <c r="AM30" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN30" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -5047,8 +6226,8 @@
       <c r="F31">
         <v>102.75</v>
       </c>
-      <c r="G31" t="s">
-        <v>100</v>
+      <c r="G31" s="5">
+        <v>556.16999999999996</v>
       </c>
       <c r="H31">
         <v>1324.22</v>
@@ -5074,97 +6253,130 @@
       <c r="O31" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <v>672388.26</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="5">
         <v>245969</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="5">
         <v>1825862.59</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>28159.8</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="5">
         <v>159187.01999999999</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="6">
         <v>390349.57</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="AD31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="26">
+        <v>1.67</v>
+      </c>
+      <c r="AF31" s="26">
+        <v>41.04</v>
+      </c>
+      <c r="AG31" s="26">
+        <v>102.81</v>
+      </c>
+      <c r="AH31" s="26">
+        <v>102.75</v>
+      </c>
+      <c r="AI31" s="27">
+        <v>556.16999999999996</v>
+      </c>
+      <c r="AJ31" s="28">
+        <v>1324.22</v>
+      </c>
+      <c r="AK31" s="26">
+        <v>34.46</v>
+      </c>
+      <c r="AL31" s="26">
+        <v>34.46</v>
+      </c>
+      <c r="AM31" s="26">
+        <v>1469.6</v>
+      </c>
+      <c r="AN31" s="29">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="41">
         <v>1.67</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="41">
         <v>39.79</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="41">
         <v>102.81</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="41">
         <v>102.81</v>
       </c>
-      <c r="G32" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="42">
+        <v>538.88</v>
+      </c>
+      <c r="H32" s="41">
         <v>1283.05</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="41">
         <v>32.74</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="41">
         <v>32.74</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="41">
         <v>1469.6</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="41">
         <v>20.100000000000001</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="41">
         <v>16</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="42">
         <v>907505.33</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="42">
         <v>664798.11</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="42">
         <v>233089</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="42">
         <v>1805392.44</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="42">
         <v>28034.68</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="42">
         <v>157402.34</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32" s="43">
         <v>382128.16</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -5183,8 +6395,8 @@
       <c r="F33">
         <v>102.73</v>
       </c>
-      <c r="G33" t="s">
-        <v>91</v>
+      <c r="G33" s="5">
+        <v>579.32000000000005</v>
       </c>
       <c r="H33">
         <v>1379.34</v>
@@ -5210,29 +6422,62 @@
       <c r="O33" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <v>681327.98</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="5">
         <v>331633</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="5">
         <v>1920466.31</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="5">
         <v>28659.64</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="5">
         <v>167435</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="6">
         <v>407547.45</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>21</v>
       </c>
@@ -5251,8 +6496,8 @@
       <c r="F34">
         <v>102.77</v>
       </c>
-      <c r="G34" t="s">
-        <v>125</v>
+      <c r="G34" s="5">
+        <v>510.07</v>
       </c>
       <c r="H34">
         <v>1214.45</v>
@@ -5278,29 +6523,62 @@
       <c r="O34" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <v>653204.09</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="5">
         <v>322369</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="5">
         <v>1883078.43</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="5">
         <v>28388.32</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="5">
         <v>164175.35999999999</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="6">
         <v>378738.68</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>907505.33</v>
+      </c>
+      <c r="AI34" s="12">
+        <v>708327.68</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>163045</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>1778878.01</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>28032.69</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>155090.69</v>
+      </c>
+      <c r="AN34" s="30">
+        <v>413501.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -5319,8 +6597,8 @@
       <c r="F35">
         <v>102.81</v>
       </c>
-      <c r="G35" t="s">
-        <v>105</v>
+      <c r="G35" s="5">
+        <v>563.1</v>
       </c>
       <c r="H35">
         <v>1340.71</v>
@@ -5346,29 +6624,62 @@
       <c r="O35" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <v>674207.34</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="5">
         <v>298850</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="5">
         <v>1880562.67</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="5">
         <v>28438.76</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="5">
         <v>163956.01999999999</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="6">
         <v>397925.21</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI35" s="17">
+        <v>694877.43</v>
+      </c>
+      <c r="AJ35" s="17">
+        <v>163045</v>
+      </c>
+      <c r="AK35" s="17">
+        <v>1765427.77</v>
+      </c>
+      <c r="AL35" s="17">
+        <v>27925.09</v>
+      </c>
+      <c r="AM35" s="17">
+        <v>153918.04</v>
+      </c>
+      <c r="AN35" s="31">
+        <v>402359.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -5387,8 +6698,8 @@
       <c r="F36">
         <v>102.78</v>
       </c>
-      <c r="G36" t="s">
-        <v>62</v>
+      <c r="G36" s="5">
+        <v>583.51</v>
       </c>
       <c r="H36">
         <v>1389.3</v>
@@ -5414,29 +6725,62 @@
       <c r="O36" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <v>683393.46</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="5">
         <v>336449</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36" s="5">
         <v>1927347.8</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36" s="5">
         <v>28700.240000000002</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36" s="5">
         <v>168034.96</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36" s="6">
         <v>409714.79</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE36" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH36" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI36" s="22">
+        <v>688065.9</v>
+      </c>
+      <c r="AJ36" s="22">
+        <v>163045</v>
+      </c>
+      <c r="AK36" s="22">
+        <v>1758616.23</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>27870.6</v>
+      </c>
+      <c r="AM36" s="22">
+        <v>153324.18</v>
+      </c>
+      <c r="AN36" s="32">
+        <v>396728.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -5455,8 +6799,8 @@
       <c r="F37">
         <v>102.74</v>
       </c>
-      <c r="G37" t="s">
-        <v>77</v>
+      <c r="G37" s="5">
+        <v>594.44000000000005</v>
       </c>
       <c r="H37">
         <v>1415.34</v>
@@ -5482,29 +6826,62 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="5">
         <v>687130.08</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="5">
         <v>410725</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37" s="5">
         <v>2005360.41</v>
       </c>
-      <c r="T37" s="4">
+      <c r="T37" s="5">
         <v>29101.51</v>
       </c>
-      <c r="U37" s="4">
+      <c r="U37" s="5">
         <v>174836.46</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37" s="6">
         <v>420909.18</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD37" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE37" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH37" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI37" s="17">
+        <v>684940.42</v>
+      </c>
+      <c r="AJ37" s="17">
+        <v>163045</v>
+      </c>
+      <c r="AK37" s="17">
+        <v>1755490.76</v>
+      </c>
+      <c r="AL37" s="17">
+        <v>27845.599999999999</v>
+      </c>
+      <c r="AM37" s="17">
+        <v>153051.68</v>
+      </c>
+      <c r="AN37" s="31">
+        <v>394137.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -5523,8 +6900,8 @@
       <c r="F38">
         <v>102.78</v>
       </c>
-      <c r="G38" t="s">
-        <v>115</v>
+      <c r="G38" s="5">
+        <v>549.76</v>
       </c>
       <c r="H38">
         <v>1308.96</v>
@@ -5550,29 +6927,62 @@
       <c r="O38" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="5">
         <v>668814.71</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="5">
         <v>303896</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38" s="5">
         <v>1880216.05</v>
       </c>
-      <c r="T38" s="4">
+      <c r="T38" s="5">
         <v>28420.84</v>
       </c>
-      <c r="U38" s="4">
+      <c r="U38" s="5">
         <v>163925.79999999999</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="6">
         <v>393009.99</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE38" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH38" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI38" s="22">
+        <v>682913.74</v>
+      </c>
+      <c r="AJ38" s="22">
+        <v>163045</v>
+      </c>
+      <c r="AK38" s="22">
+        <v>1753464.07</v>
+      </c>
+      <c r="AL38" s="22">
+        <v>27829.38</v>
+      </c>
+      <c r="AM38" s="22">
+        <v>152874.99</v>
+      </c>
+      <c r="AN38" s="32">
+        <v>392462.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>22</v>
       </c>
@@ -5591,8 +7001,8 @@
       <c r="F39">
         <v>102.81</v>
       </c>
-      <c r="G39" t="s">
-        <v>130</v>
+      <c r="G39" s="5">
+        <v>515.89</v>
       </c>
       <c r="H39">
         <v>1228.31</v>
@@ -5618,29 +7028,62 @@
       <c r="O39" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <v>653806.02</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="5">
         <v>393809</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="5">
         <v>1955120.35</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39" s="5">
         <v>28601.82</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U39" s="5">
         <v>170456.3</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="6">
         <v>387358.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AD39" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE39" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH39" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI39" s="17">
+        <v>683745.3</v>
+      </c>
+      <c r="AJ39" s="17">
+        <v>287760</v>
+      </c>
+      <c r="AK39" s="17">
+        <v>1879010.63</v>
+      </c>
+      <c r="AL39" s="17">
+        <v>28459.61</v>
+      </c>
+      <c r="AM39" s="17">
+        <v>163820.71</v>
+      </c>
+      <c r="AN39" s="31">
+        <v>405207.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -5659,8 +7102,8 @@
       <c r="F40">
         <v>102.78</v>
       </c>
-      <c r="G40" t="s">
-        <v>187</v>
+      <c r="G40" s="5">
+        <v>470.44</v>
       </c>
       <c r="H40">
         <v>1120.0999999999999</v>
@@ -5686,29 +7129,62 @@
       <c r="O40" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <v>637606.68000000005</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="5">
         <v>502778</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40" s="5">
         <v>2047890.01</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40" s="5">
         <v>28729.39</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U40" s="5">
         <v>178544.38</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="6">
         <v>378985.77</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD40" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE40" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG40" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH40" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI40" s="22">
+        <v>688371.03</v>
+      </c>
+      <c r="AJ40" s="22">
+        <v>267646</v>
+      </c>
+      <c r="AK40" s="22">
+        <v>1863522.37</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>28396.04</v>
+      </c>
+      <c r="AM40" s="22">
+        <v>162470.37</v>
+      </c>
+      <c r="AN40" s="32">
+        <v>406475.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -5727,8 +7203,8 @@
       <c r="F41">
         <v>102.76</v>
       </c>
-      <c r="G41" t="s">
-        <v>72</v>
+      <c r="G41" s="5">
+        <v>586.20000000000005</v>
       </c>
       <c r="H41">
         <v>1395.71</v>
@@ -5754,29 +7230,62 @@
       <c r="O41" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <v>684250.3</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="5">
         <v>363666</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41" s="5">
         <v>1955421.64</v>
       </c>
-      <c r="T41" s="4">
+      <c r="T41" s="5">
         <v>28843.18</v>
       </c>
-      <c r="U41" s="4">
+      <c r="U41" s="5">
         <v>170482.57</v>
       </c>
-      <c r="V41" s="4">
+      <c r="V41" s="6">
         <v>413287.93</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE41" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH41" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI41" s="17">
+        <v>692198.85</v>
+      </c>
+      <c r="AJ41" s="17">
+        <v>290916</v>
+      </c>
+      <c r="AK41" s="17">
+        <v>1890620.19</v>
+      </c>
+      <c r="AL41" s="17">
+        <v>28543.02</v>
+      </c>
+      <c r="AM41" s="17">
+        <v>164832.88</v>
+      </c>
+      <c r="AN41" s="31">
+        <v>411470.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>48</v>
       </c>
@@ -5795,8 +7304,8 @@
       <c r="F42">
         <v>102.78</v>
       </c>
-      <c r="G42" t="s">
-        <v>261</v>
+      <c r="G42" s="5">
+        <v>471.9</v>
       </c>
       <c r="H42">
         <v>1123.57</v>
@@ -5822,29 +7331,62 @@
       <c r="O42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="5">
         <v>637652.07999999996</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="5">
         <v>546906</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42" s="5">
         <v>2092063.41</v>
       </c>
-      <c r="T42" s="4">
+      <c r="T42" s="5">
         <v>28849.59</v>
       </c>
-      <c r="U42" s="4">
+      <c r="U42" s="5">
         <v>182395.62</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V42" s="6">
         <v>383487.91</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD42" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE42" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG42" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI42" s="22">
+        <v>684038.01</v>
+      </c>
+      <c r="AJ42" s="22">
+        <v>329133</v>
+      </c>
+      <c r="AK42" s="22">
+        <v>1920676.34</v>
+      </c>
+      <c r="AL42" s="22">
+        <v>28668.82</v>
+      </c>
+      <c r="AM42" s="22">
+        <v>167453.32</v>
+      </c>
+      <c r="AN42" s="32">
+        <v>409695.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>34</v>
       </c>
@@ -5863,8 +7405,8 @@
       <c r="F43">
         <v>102.81</v>
       </c>
-      <c r="G43" t="s">
-        <v>192</v>
+      <c r="G43" s="5">
+        <v>480.85</v>
       </c>
       <c r="H43">
         <v>1144.8800000000001</v>
@@ -5890,29 +7432,62 @@
       <c r="O43" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <v>638459.81000000006</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="5">
         <v>531020</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="5">
         <v>2076985.14</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43" s="5">
         <v>28877.43</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="5">
         <v>181081.03</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43" s="6">
         <v>385469.08</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE43" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH43" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI43" s="17">
+        <v>677395.58</v>
+      </c>
+      <c r="AJ43" s="17">
+        <v>163045</v>
+      </c>
+      <c r="AK43" s="17">
+        <v>1747945.91</v>
+      </c>
+      <c r="AL43" s="17">
+        <v>27785.24</v>
+      </c>
+      <c r="AM43" s="17">
+        <v>152393.89000000001</v>
+      </c>
+      <c r="AN43" s="31">
+        <v>387875.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>23</v>
       </c>
@@ -5931,8 +7506,8 @@
       <c r="F44">
         <v>102.74</v>
       </c>
-      <c r="G44" t="s">
-        <v>135</v>
+      <c r="G44" s="5">
+        <v>519.47</v>
       </c>
       <c r="H44">
         <v>1236.83</v>
@@ -5958,29 +7533,62 @@
       <c r="O44" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="5">
         <v>654512.62</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="5">
         <v>441685</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S44" s="5">
         <v>2003702.96</v>
       </c>
-      <c r="T44" s="4">
+      <c r="T44" s="5">
         <v>28748.89</v>
       </c>
-      <c r="U44" s="4">
+      <c r="U44" s="5">
         <v>174691.95</v>
       </c>
-      <c r="V44" s="4">
+      <c r="V44" s="6">
         <v>393046.56</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE44" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG44" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH44" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI44" s="22">
+        <v>675983.7</v>
+      </c>
+      <c r="AJ44" s="22">
+        <v>163045</v>
+      </c>
+      <c r="AK44" s="22">
+        <v>1746534.04</v>
+      </c>
+      <c r="AL44" s="22">
+        <v>27773.94</v>
+      </c>
+      <c r="AM44" s="22">
+        <v>152270.79999999999</v>
+      </c>
+      <c r="AN44" s="32">
+        <v>386786.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -5999,8 +7607,8 @@
       <c r="F45">
         <v>102.73</v>
       </c>
-      <c r="G45" t="s">
-        <v>207</v>
+      <c r="G45" s="5">
+        <v>485.5</v>
       </c>
       <c r="H45">
         <v>1155.96</v>
@@ -6026,97 +7634,130 @@
       <c r="O45" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <v>639117.44999999995</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="5">
         <v>577724</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="5">
         <v>2124346.79</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="5">
         <v>29015.41</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="5">
         <v>185210.23</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="6">
         <v>391434.16</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="AD45" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>6</v>
+      </c>
+      <c r="AF45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG45" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH45" s="27">
+        <v>907505.33</v>
+      </c>
+      <c r="AI45" s="27">
+        <v>672388.26</v>
+      </c>
+      <c r="AJ45" s="27">
+        <v>245969</v>
+      </c>
+      <c r="AK45" s="27">
+        <v>1825862.59</v>
+      </c>
+      <c r="AL45" s="27">
+        <v>28159.8</v>
+      </c>
+      <c r="AM45" s="27">
+        <v>159187.01999999999</v>
+      </c>
+      <c r="AN45" s="33">
+        <v>390349.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="41">
         <v>2.77</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="41">
         <v>36.79</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="41">
         <v>102.81</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="41">
         <v>102.81</v>
       </c>
-      <c r="G46" t="s">
-        <v>266</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="42">
+        <v>496.74</v>
+      </c>
+      <c r="H46" s="41">
         <v>1182.71</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="41">
         <v>26.76</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="41">
         <v>26.76</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="41">
         <v>1469.6</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="41">
         <v>19.940000000000001</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="41">
         <v>16</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="42">
         <v>907505.33</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="42">
         <v>638413</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="42">
         <v>508877</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46" s="42">
         <v>2054795.33</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T46" s="42">
         <v>28665.54</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="42">
         <v>179146.42</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V46" s="43">
         <v>389120.82</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -6135,8 +7776,8 @@
       <c r="F47">
         <v>102.76</v>
       </c>
-      <c r="G47" t="s">
-        <v>120</v>
+      <c r="G47" s="5">
+        <v>554.79999999999995</v>
       </c>
       <c r="H47">
         <v>1320.96</v>
@@ -6162,29 +7803,62 @@
       <c r="O47" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="5">
         <v>670472.17000000004</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="5">
         <v>366737</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47" s="5">
         <v>1944714.5</v>
       </c>
-      <c r="T47" s="4">
+      <c r="T47" s="5">
         <v>28748.31</v>
       </c>
-      <c r="U47" s="4">
+      <c r="U47" s="5">
         <v>169549.07</v>
       </c>
-      <c r="V47" s="4">
+      <c r="V47" s="6">
         <v>400800.57</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM47" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN47" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>35</v>
       </c>
@@ -6203,8 +7877,8 @@
       <c r="F48">
         <v>102.76</v>
       </c>
-      <c r="G48" t="s">
-        <v>197</v>
+      <c r="G48" s="5">
+        <v>484.61</v>
       </c>
       <c r="H48">
         <v>1153.8399999999999</v>
@@ -6230,29 +7904,62 @@
       <c r="O48" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <v>639708.34</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="5">
         <v>591995</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S48" s="5">
         <v>2139208.67</v>
       </c>
-      <c r="T48" s="4">
+      <c r="T48" s="5">
         <v>29173.93</v>
       </c>
-      <c r="U48" s="4">
+      <c r="U48" s="5">
         <v>186505.96</v>
       </c>
-      <c r="V48" s="4">
+      <c r="V48" s="6">
         <v>392563.33</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD48" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>39.79</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AI48" s="12">
+        <v>538.88</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>1283.05</v>
+      </c>
+      <c r="AK48" s="11">
+        <v>32.74</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>32.74</v>
+      </c>
+      <c r="AM48" s="11">
+        <v>1469.6</v>
+      </c>
+      <c r="AN48" s="14">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40</v>
       </c>
@@ -6271,8 +7978,8 @@
       <c r="F49">
         <v>102.77</v>
       </c>
-      <c r="G49" t="s">
-        <v>222</v>
+      <c r="G49" s="5">
+        <v>480.44</v>
       </c>
       <c r="H49">
         <v>1143.9100000000001</v>
@@ -6298,29 +8005,62 @@
       <c r="O49" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <v>640393.26</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="5">
         <v>598510</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S49" s="5">
         <v>2146408.6</v>
       </c>
-      <c r="T49" s="4">
+      <c r="T49" s="5">
         <v>29230.34</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U49" s="5">
         <v>187133.68</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V49" s="6">
         <v>391724.73</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD49" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE49" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="AF49" s="16">
+        <v>42.75</v>
+      </c>
+      <c r="AG49" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH49" s="16">
+        <v>102.73</v>
+      </c>
+      <c r="AI49" s="17">
+        <v>579.32000000000005</v>
+      </c>
+      <c r="AJ49" s="18">
+        <v>1379.34</v>
+      </c>
+      <c r="AK49" s="16">
+        <v>36.49</v>
+      </c>
+      <c r="AL49" s="16">
+        <v>36.49</v>
+      </c>
+      <c r="AM49" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN49" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>36</v>
       </c>
@@ -6339,8 +8079,8 @@
       <c r="F50">
         <v>102.75</v>
       </c>
-      <c r="G50" t="s">
-        <v>202</v>
+      <c r="G50" s="5">
+        <v>486.38</v>
       </c>
       <c r="H50">
         <v>1158.06</v>
@@ -6366,29 +8106,62 @@
       <c r="O50" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="5">
         <v>640275.96</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="5">
         <v>628400</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="5">
         <v>2176181.2999999998</v>
       </c>
-      <c r="T50" s="4">
+      <c r="T50" s="5">
         <v>29360.49</v>
       </c>
-      <c r="U50" s="4">
+      <c r="U50" s="5">
         <v>189729.4</v>
       </c>
-      <c r="V50" s="4">
+      <c r="V50" s="6">
         <v>396620.04</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD50" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE50" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="AF50" s="21">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="AG50" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH50" s="21">
+        <v>102.77</v>
+      </c>
+      <c r="AI50" s="22">
+        <v>510.07</v>
+      </c>
+      <c r="AJ50" s="23">
+        <v>1214.45</v>
+      </c>
+      <c r="AK50" s="21">
+        <v>30.11</v>
+      </c>
+      <c r="AL50" s="21">
+        <v>30.11</v>
+      </c>
+      <c r="AM50" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN50" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>24</v>
       </c>
@@ -6407,8 +8180,8 @@
       <c r="F51">
         <v>102.81</v>
       </c>
-      <c r="G51" t="s">
-        <v>140</v>
+      <c r="G51" s="5">
+        <v>525.6</v>
       </c>
       <c r="H51">
         <v>1251.42</v>
@@ -6434,29 +8207,62 @@
       <c r="O51" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="5">
         <v>655917.93999999994</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="5">
         <v>499942</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S51" s="5">
         <v>2063365.27</v>
       </c>
-      <c r="T51" s="4">
+      <c r="T51" s="5">
         <v>29051.42</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="5">
         <v>179893.59</v>
       </c>
-      <c r="V51" s="4">
+      <c r="V51" s="6">
         <v>400787.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD51" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE51" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="AF51" s="16">
+        <v>41.57</v>
+      </c>
+      <c r="AG51" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH51" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AI51" s="17">
+        <v>563.1</v>
+      </c>
+      <c r="AJ51" s="18">
+        <v>1340.71</v>
+      </c>
+      <c r="AK51" s="16">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="AL51" s="16">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="AM51" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN51" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6475,8 +8281,8 @@
       <c r="F52">
         <v>102.74</v>
       </c>
-      <c r="G52" t="s">
-        <v>271</v>
+      <c r="G52" s="5">
+        <v>503.84</v>
       </c>
       <c r="H52">
         <v>1199.6099999999999</v>
@@ -6502,29 +8308,62 @@
       <c r="O52" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="5">
         <v>640658.65</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="5">
         <v>571627</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="5">
         <v>2119790.98</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="5">
         <v>28997.25</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="5">
         <v>184813.04</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="6">
         <v>397710.96</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD52" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE52" s="21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AF52" s="21">
+        <v>43.07</v>
+      </c>
+      <c r="AG52" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH52" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI52" s="22">
+        <v>583.51</v>
+      </c>
+      <c r="AJ52" s="23">
+        <v>1389.3</v>
+      </c>
+      <c r="AK52" s="21">
+        <v>36.96</v>
+      </c>
+      <c r="AL52" s="21">
+        <v>36.96</v>
+      </c>
+      <c r="AM52" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN52" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>56</v>
       </c>
@@ -6543,8 +8382,8 @@
       <c r="F53">
         <v>102.78</v>
       </c>
-      <c r="G53" t="s">
-        <v>300</v>
+      <c r="G53" s="5">
+        <v>496.4</v>
       </c>
       <c r="H53">
         <v>1181.9000000000001</v>
@@ -6570,29 +8409,62 @@
       <c r="O53" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <v>641445.31000000006</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="5">
         <v>649697</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="5">
         <v>2198647.65</v>
       </c>
-      <c r="T53" s="4">
+      <c r="T53" s="5">
         <v>29393.89</v>
       </c>
-      <c r="U53" s="4">
+      <c r="U53" s="5">
         <v>191688.12</v>
       </c>
-      <c r="V53" s="4">
+      <c r="V53" s="6">
         <v>402268.03</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD53" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE53" s="16">
+        <v>2.23</v>
+      </c>
+      <c r="AF53" s="16">
+        <v>43.88</v>
+      </c>
+      <c r="AG53" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH53" s="16">
+        <v>102.74</v>
+      </c>
+      <c r="AI53" s="17">
+        <v>594.44000000000005</v>
+      </c>
+      <c r="AJ53" s="18">
+        <v>1415.34</v>
+      </c>
+      <c r="AK53" s="16">
+        <v>37.81</v>
+      </c>
+      <c r="AL53" s="16">
+        <v>37.81</v>
+      </c>
+      <c r="AM53" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN53" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26</v>
       </c>
@@ -6611,8 +8483,8 @@
       <c r="F54">
         <v>102.77</v>
       </c>
-      <c r="G54" t="s">
-        <v>150</v>
+      <c r="G54" s="5">
+        <v>528.91</v>
       </c>
       <c r="H54">
         <v>1259.32</v>
@@ -6638,29 +8510,62 @@
       <c r="O54" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="5">
         <v>657107.38</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="5">
         <v>525241</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S54" s="5">
         <v>2089853.71</v>
       </c>
-      <c r="T54" s="4">
+      <c r="T54" s="5">
         <v>29122.83</v>
       </c>
-      <c r="U54" s="4">
+      <c r="U54" s="5">
         <v>182202.97</v>
       </c>
-      <c r="V54" s="4">
+      <c r="V54" s="6">
         <v>404379.68</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD54" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE54" s="21">
+        <v>2.29</v>
+      </c>
+      <c r="AF54" s="21">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="AG54" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH54" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI54" s="22">
+        <v>549.76</v>
+      </c>
+      <c r="AJ54" s="23">
+        <v>1308.96</v>
+      </c>
+      <c r="AK54" s="21">
+        <v>33.65</v>
+      </c>
+      <c r="AL54" s="21">
+        <v>33.65</v>
+      </c>
+      <c r="AM54" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN54" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>39</v>
       </c>
@@ -6679,8 +8584,8 @@
       <c r="F55">
         <v>102.74</v>
       </c>
-      <c r="G55" t="s">
-        <v>217</v>
+      <c r="G55" s="5">
+        <v>509.25</v>
       </c>
       <c r="H55">
         <v>1212.49</v>
@@ -6706,29 +8611,62 @@
       <c r="O55" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="5">
         <v>643113.37</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55" s="5">
         <v>580826</v>
       </c>
-      <c r="S55" s="4">
+      <c r="S55" s="5">
         <v>2131444.71</v>
       </c>
-      <c r="T55" s="4">
+      <c r="T55" s="5">
         <v>29145.32</v>
       </c>
-      <c r="U55" s="4">
+      <c r="U55" s="5">
         <v>185829.06</v>
       </c>
-      <c r="V55" s="4">
+      <c r="V55" s="6">
         <v>400849.86</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD55" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE55" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF55" s="16">
+        <v>38.11</v>
+      </c>
+      <c r="AG55" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH55" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AI55" s="17">
+        <v>515.89</v>
+      </c>
+      <c r="AJ55" s="18">
+        <v>1228.31</v>
+      </c>
+      <c r="AK55" s="16">
+        <v>30.25</v>
+      </c>
+      <c r="AL55" s="16">
+        <v>30.25</v>
+      </c>
+      <c r="AM55" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN55" s="19">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>29</v>
       </c>
@@ -6747,8 +8685,8 @@
       <c r="F56">
         <v>102.77</v>
       </c>
-      <c r="G56" t="s">
-        <v>166</v>
+      <c r="G56" s="5">
+        <v>528.07000000000005</v>
       </c>
       <c r="H56">
         <v>1257.3</v>
@@ -6774,29 +8712,62 @@
       <c r="O56" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="5">
         <v>656964.98</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R56" s="5">
         <v>514126</v>
       </c>
-      <c r="S56" s="4">
+      <c r="S56" s="5">
         <v>2078596.31</v>
       </c>
-      <c r="T56" s="4">
+      <c r="T56" s="5">
         <v>29081.59</v>
       </c>
-      <c r="U56" s="4">
+      <c r="U56" s="5">
         <v>181221.5</v>
       </c>
-      <c r="V56" s="4">
+      <c r="V56" s="6">
         <v>403047.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD56" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE56" s="21">
+        <v>2.38</v>
+      </c>
+      <c r="AF56" s="21">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="AG56" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH56" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI56" s="22">
+        <v>470.44</v>
+      </c>
+      <c r="AJ56" s="23">
+        <v>1120.0999999999999</v>
+      </c>
+      <c r="AK56" s="21">
+        <v>26.58</v>
+      </c>
+      <c r="AL56" s="21">
+        <v>26.58</v>
+      </c>
+      <c r="AM56" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN56" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42</v>
       </c>
@@ -6815,8 +8786,8 @@
       <c r="F57">
         <v>102.82</v>
       </c>
-      <c r="G57" t="s">
-        <v>232</v>
+      <c r="G57" s="5">
+        <v>494.42</v>
       </c>
       <c r="H57">
         <v>1177.2</v>
@@ -6842,29 +8813,62 @@
       <c r="O57" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="5">
         <v>642140.34</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="5">
         <v>581206</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S57" s="5">
         <v>2130851.67</v>
       </c>
-      <c r="T57" s="4">
+      <c r="T57" s="5">
         <v>29157.8</v>
       </c>
-      <c r="U57" s="4">
+      <c r="U57" s="5">
         <v>185777.36</v>
       </c>
-      <c r="V57" s="4">
+      <c r="V57" s="6">
         <v>395400</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE57" s="16">
+        <v>2.46</v>
+      </c>
+      <c r="AF57" s="16">
+        <v>43.27</v>
+      </c>
+      <c r="AG57" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH57" s="16">
+        <v>102.76</v>
+      </c>
+      <c r="AI57" s="17">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="AJ57" s="18">
+        <v>1395.71</v>
+      </c>
+      <c r="AK57" s="16">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="AL57" s="16">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="AM57" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN57" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>27</v>
       </c>
@@ -6883,8 +8887,8 @@
       <c r="F58">
         <v>102.75</v>
       </c>
-      <c r="G58" t="s">
-        <v>155</v>
+      <c r="G58" s="5">
+        <v>530.29999999999995</v>
       </c>
       <c r="H58">
         <v>1262.6300000000001</v>
@@ -6910,29 +8914,62 @@
       <c r="O58" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="5">
         <v>657557.02</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="5">
         <v>567187</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S58" s="5">
         <v>2132249.35</v>
       </c>
-      <c r="T58" s="4">
+      <c r="T58" s="5">
         <v>29290.26</v>
       </c>
-      <c r="U58" s="4">
+      <c r="U58" s="5">
         <v>185899.21</v>
       </c>
-      <c r="V58" s="4">
+      <c r="V58" s="6">
         <v>408750.15</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD58" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE58" s="21">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF58" s="21">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="AG58" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH58" s="21">
+        <v>102.78</v>
+      </c>
+      <c r="AI58" s="22">
+        <v>471.9</v>
+      </c>
+      <c r="AJ58" s="23">
+        <v>1123.57</v>
+      </c>
+      <c r="AK58" s="21">
+        <v>26.59</v>
+      </c>
+      <c r="AL58" s="21">
+        <v>26.59</v>
+      </c>
+      <c r="AM58" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN58" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>51</v>
       </c>
@@ -6951,8 +8988,8 @@
       <c r="F59">
         <v>102.81</v>
       </c>
-      <c r="G59" t="s">
-        <v>276</v>
+      <c r="G59" s="5">
+        <v>510.17</v>
       </c>
       <c r="H59">
         <v>1214.7</v>
@@ -6978,97 +9015,130 @@
       <c r="O59" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="5">
         <v>642088.18999999994</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="5">
         <v>637809</v>
       </c>
-      <c r="S59" s="4">
+      <c r="S59" s="5">
         <v>2187402.52</v>
       </c>
-      <c r="T59" s="4">
+      <c r="T59" s="5">
         <v>29292.51</v>
       </c>
-      <c r="U59" s="4">
+      <c r="U59" s="5">
         <v>190707.72</v>
       </c>
-      <c r="V59" s="4">
+      <c r="V59" s="6">
         <v>406213.46</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="AD59" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE59" s="26">
+        <v>2.56</v>
+      </c>
+      <c r="AF59" s="26">
+        <v>35.57</v>
+      </c>
+      <c r="AG59" s="26">
+        <v>102.81</v>
+      </c>
+      <c r="AH59" s="26">
+        <v>102.81</v>
+      </c>
+      <c r="AI59" s="27">
+        <v>480.85</v>
+      </c>
+      <c r="AJ59" s="28">
+        <v>1144.8800000000001</v>
+      </c>
+      <c r="AK59" s="26">
+        <v>26.77</v>
+      </c>
+      <c r="AL59" s="26">
+        <v>26.77</v>
+      </c>
+      <c r="AM59" s="26">
+        <v>1469.6</v>
+      </c>
+      <c r="AN59" s="29">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
         <v>44</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="41">
         <v>3.44</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="41">
         <v>36.85</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="41">
         <v>102.81</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="41">
         <v>102.8</v>
       </c>
-      <c r="G60" t="s">
-        <v>242</v>
-      </c>
-      <c r="H60">
+      <c r="G60" s="42">
+        <v>497.63</v>
+      </c>
+      <c r="H60" s="41">
         <v>1184.82</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="41">
         <v>27.87</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="41">
         <v>27.87</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="41">
         <v>1469.6</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="41">
         <v>20.100000000000001</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="41">
         <v>16</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="42">
         <v>907505.33</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="42">
         <v>643305.94999999995</v>
       </c>
-      <c r="R60" s="4">
+      <c r="R60" s="42">
         <v>648524</v>
       </c>
-      <c r="S60" s="4">
+      <c r="S60" s="42">
         <v>2199335.2799999998</v>
       </c>
-      <c r="T60" s="4">
+      <c r="T60" s="42">
         <v>29503.71</v>
       </c>
-      <c r="U60" s="4">
+      <c r="U60" s="42">
         <v>191748.07</v>
       </c>
-      <c r="V60" s="4">
+      <c r="V60" s="43">
         <v>402885.05</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>25</v>
       </c>
@@ -7087,8 +9157,8 @@
       <c r="F61">
         <v>102.74</v>
       </c>
-      <c r="G61" t="s">
-        <v>145</v>
+      <c r="G61" s="5">
+        <v>531.13</v>
       </c>
       <c r="H61">
         <v>1264.5899999999999</v>
@@ -7114,29 +9184,62 @@
       <c r="O61" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="5">
         <v>657716</v>
       </c>
-      <c r="R61" s="4">
+      <c r="R61" s="5">
         <v>570414</v>
       </c>
-      <c r="S61" s="4">
+      <c r="S61" s="5">
         <v>2135635.33</v>
       </c>
-      <c r="T61" s="4">
+      <c r="T61" s="5">
         <v>29372.26</v>
       </c>
-      <c r="U61" s="4">
+      <c r="U61" s="5">
         <v>186194.42</v>
       </c>
-      <c r="V61" s="4">
+      <c r="V61" s="6">
         <v>409428.01</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM61" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN61" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>53</v>
       </c>
@@ -7155,8 +9258,8 @@
       <c r="F62">
         <v>102.77</v>
       </c>
-      <c r="G62" t="s">
-        <v>285</v>
+      <c r="G62" s="5">
+        <v>495.27</v>
       </c>
       <c r="H62">
         <v>1179.22</v>
@@ -7182,29 +9285,62 @@
       <c r="O62" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="Q62" s="5">
         <v>641657.77</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="5">
         <v>661233</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S62" s="5">
         <v>2210396.1</v>
       </c>
-      <c r="T62" s="4">
+      <c r="T62" s="5">
         <v>29453.27</v>
       </c>
-      <c r="U62" s="4">
+      <c r="U62" s="5">
         <v>192712.4</v>
       </c>
-      <c r="V62" s="4">
+      <c r="V62" s="6">
         <v>402939.74</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD62" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE62" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF62" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH62" s="12">
+        <v>907505.33</v>
+      </c>
+      <c r="AI62" s="12">
+        <v>664798.11</v>
+      </c>
+      <c r="AJ62" s="12">
+        <v>233089</v>
+      </c>
+      <c r="AK62" s="12">
+        <v>1805392.44</v>
+      </c>
+      <c r="AL62" s="12">
+        <v>28034.68</v>
+      </c>
+      <c r="AM62" s="12">
+        <v>157402.34</v>
+      </c>
+      <c r="AN62" s="30">
+        <v>382128.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
@@ -7223,8 +9359,8 @@
       <c r="F63">
         <v>102.76</v>
       </c>
-      <c r="G63" t="s">
-        <v>171</v>
+      <c r="G63" s="5">
+        <v>530.54</v>
       </c>
       <c r="H63">
         <v>1263.18</v>
@@ -7250,29 +9386,62 @@
       <c r="O63" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="5">
         <v>657811.21</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="5">
         <v>535406</v>
       </c>
-      <c r="S63" s="4">
+      <c r="S63" s="5">
         <v>2100722.54</v>
       </c>
-      <c r="T63" s="4">
+      <c r="T63" s="5">
         <v>29175.72</v>
       </c>
-      <c r="U63" s="4">
+      <c r="U63" s="5">
         <v>183150.56</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V63" s="6">
         <v>405971.97</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD63" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE63" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG63" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH63" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI63" s="17">
+        <v>681327.98</v>
+      </c>
+      <c r="AJ63" s="17">
+        <v>331633</v>
+      </c>
+      <c r="AK63" s="17">
+        <v>1920466.31</v>
+      </c>
+      <c r="AL63" s="17">
+        <v>28659.64</v>
+      </c>
+      <c r="AM63" s="17">
+        <v>167435</v>
+      </c>
+      <c r="AN63" s="31">
+        <v>407547.45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45</v>
       </c>
@@ -7291,8 +9460,8 @@
       <c r="F64">
         <v>102.79</v>
       </c>
-      <c r="G64" t="s">
-        <v>212</v>
+      <c r="G64" s="5">
+        <v>499.79</v>
       </c>
       <c r="H64">
         <v>1189.99</v>
@@ -7318,29 +9487,62 @@
       <c r="O64" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="5">
         <v>644062.48</v>
       </c>
-      <c r="R64" s="4">
+      <c r="R64" s="5">
         <v>665521</v>
       </c>
-      <c r="S64" s="4">
+      <c r="S64" s="5">
         <v>2217088.81</v>
       </c>
-      <c r="T64" s="4">
+      <c r="T64" s="5">
         <v>29594.75</v>
       </c>
-      <c r="U64" s="4">
+      <c r="U64" s="5">
         <v>193295.91</v>
       </c>
-      <c r="V64" s="4">
+      <c r="V64" s="6">
         <v>405315.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD64" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE64" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF64" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG64" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH64" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI64" s="22">
+        <v>653204.09</v>
+      </c>
+      <c r="AJ64" s="22">
+        <v>322369</v>
+      </c>
+      <c r="AK64" s="22">
+        <v>1883078.43</v>
+      </c>
+      <c r="AL64" s="22">
+        <v>28388.32</v>
+      </c>
+      <c r="AM64" s="22">
+        <v>164175.35999999999</v>
+      </c>
+      <c r="AN64" s="32">
+        <v>378738.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41</v>
       </c>
@@ -7359,8 +9561,8 @@
       <c r="F65">
         <v>102.84</v>
       </c>
-      <c r="G65" t="s">
-        <v>227</v>
+      <c r="G65" s="5">
+        <v>506.28</v>
       </c>
       <c r="H65">
         <v>1205.44</v>
@@ -7386,29 +9588,62 @@
       <c r="O65" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="5">
         <v>642636.81000000006</v>
       </c>
-      <c r="R65" s="4">
+      <c r="R65" s="5">
         <v>557346</v>
       </c>
-      <c r="S65" s="4">
+      <c r="S65" s="5">
         <v>2107488.14</v>
       </c>
-      <c r="T65" s="4">
+      <c r="T65" s="5">
         <v>29042.47</v>
       </c>
-      <c r="U65" s="4">
+      <c r="U65" s="5">
         <v>183740.42</v>
       </c>
-      <c r="V65" s="4">
+      <c r="V65" s="6">
         <v>397576.46</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD65" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE65" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG65" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH65" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI65" s="17">
+        <v>674207.34</v>
+      </c>
+      <c r="AJ65" s="17">
+        <v>298850</v>
+      </c>
+      <c r="AK65" s="17">
+        <v>1880562.67</v>
+      </c>
+      <c r="AL65" s="17">
+        <v>28438.76</v>
+      </c>
+      <c r="AM65" s="17">
+        <v>163956.01999999999</v>
+      </c>
+      <c r="AN65" s="31">
+        <v>397925.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>12</v>
       </c>
@@ -7427,8 +9662,8 @@
       <c r="F66">
         <v>102.81</v>
       </c>
-      <c r="G66" t="s">
-        <v>82</v>
+      <c r="G66" s="5">
+        <v>597.05999999999995</v>
       </c>
       <c r="H66">
         <v>1421.57</v>
@@ -7454,29 +9689,62 @@
       <c r="O66" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="5">
         <v>687645.58</v>
       </c>
-      <c r="R66" s="4">
+      <c r="R66" s="5">
         <v>438930</v>
       </c>
-      <c r="S66" s="4">
+      <c r="S66" s="5">
         <v>2034080.91</v>
       </c>
-      <c r="T66" s="4">
+      <c r="T66" s="5">
         <v>29246.66</v>
       </c>
-      <c r="U66" s="4">
+      <c r="U66" s="5">
         <v>177340.44</v>
       </c>
-      <c r="V66" s="4">
+      <c r="V66" s="6">
         <v>424514.51</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD66" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE66" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG66" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH66" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI66" s="22">
+        <v>683393.46</v>
+      </c>
+      <c r="AJ66" s="22">
+        <v>336449</v>
+      </c>
+      <c r="AK66" s="22">
+        <v>1927347.8</v>
+      </c>
+      <c r="AL66" s="22">
+        <v>28700.240000000002</v>
+      </c>
+      <c r="AM66" s="22">
+        <v>168034.96</v>
+      </c>
+      <c r="AN66" s="32">
+        <v>409714.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>54</v>
       </c>
@@ -7495,8 +9763,8 @@
       <c r="F67">
         <v>102.84</v>
       </c>
-      <c r="G67" t="s">
-        <v>290</v>
+      <c r="G67" s="5">
+        <v>521.11</v>
       </c>
       <c r="H67">
         <v>1240.74</v>
@@ -7522,29 +9790,62 @@
       <c r="O67" t="s">
         <v>25</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="5">
         <v>645469.93000000005</v>
       </c>
-      <c r="R67" s="4">
+      <c r="R67" s="5">
         <v>676945</v>
       </c>
-      <c r="S67" s="4">
+      <c r="S67" s="5">
         <v>2229920.2599999998</v>
       </c>
-      <c r="T67" s="4">
+      <c r="T67" s="5">
         <v>29515.24</v>
       </c>
-      <c r="U67" s="4">
+      <c r="U67" s="5">
         <v>194414.61</v>
       </c>
-      <c r="V67" s="4">
+      <c r="V67" s="6">
         <v>414134.81</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD67" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE67" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG67" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH67" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI67" s="17">
+        <v>687130.08</v>
+      </c>
+      <c r="AJ67" s="17">
+        <v>410725</v>
+      </c>
+      <c r="AK67" s="17">
+        <v>2005360.41</v>
+      </c>
+      <c r="AL67" s="17">
+        <v>29101.51</v>
+      </c>
+      <c r="AM67" s="17">
+        <v>174836.46</v>
+      </c>
+      <c r="AN67" s="31">
+        <v>420909.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>52</v>
       </c>
@@ -7563,8 +9864,8 @@
       <c r="F68">
         <v>102.74</v>
       </c>
-      <c r="G68" t="s">
-        <v>280</v>
+      <c r="G68" s="5">
+        <v>520.80999999999995</v>
       </c>
       <c r="H68">
         <v>1240.03</v>
@@ -7590,29 +9891,62 @@
       <c r="O68" t="s">
         <v>25</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="5">
         <v>645989.74</v>
       </c>
-      <c r="R68" s="4">
+      <c r="R68" s="5">
         <v>685878</v>
       </c>
-      <c r="S68" s="4">
+      <c r="S68" s="5">
         <v>2239373.08</v>
       </c>
-      <c r="T68" s="4">
+      <c r="T68" s="5">
         <v>29564.06</v>
       </c>
-      <c r="U68" s="4">
+      <c r="U68" s="5">
         <v>195238.75</v>
       </c>
-      <c r="V68" s="4">
+      <c r="V68" s="6">
         <v>414899.57</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD68" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE68" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF68" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG68" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH68" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI68" s="22">
+        <v>668814.71</v>
+      </c>
+      <c r="AJ68" s="22">
+        <v>303896</v>
+      </c>
+      <c r="AK68" s="22">
+        <v>1880216.05</v>
+      </c>
+      <c r="AL68" s="22">
+        <v>28420.84</v>
+      </c>
+      <c r="AM68" s="22">
+        <v>163925.79999999999</v>
+      </c>
+      <c r="AN68" s="32">
+        <v>393009.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>28</v>
       </c>
@@ -7631,8 +9965,8 @@
       <c r="F69">
         <v>102.83</v>
       </c>
-      <c r="G69" t="s">
-        <v>160</v>
+      <c r="G69" s="5">
+        <v>544.79</v>
       </c>
       <c r="H69">
         <v>1297.1199999999999</v>
@@ -7658,29 +9992,62 @@
       <c r="O69" t="s">
         <v>161</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="5">
         <v>661434.48</v>
       </c>
-      <c r="R69" s="4">
+      <c r="R69" s="5">
         <v>612291</v>
       </c>
-      <c r="S69" s="4">
+      <c r="S69" s="5">
         <v>2181230.8199999998</v>
       </c>
-      <c r="T69" s="4">
+      <c r="T69" s="5">
         <v>29546.799999999999</v>
       </c>
-      <c r="U69" s="4">
+      <c r="U69" s="5">
         <v>190169.64</v>
       </c>
-      <c r="V69" s="4">
+      <c r="V69" s="6">
         <v>418565.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD69" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE69" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH69" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI69" s="17">
+        <v>653806.02</v>
+      </c>
+      <c r="AJ69" s="17">
+        <v>393809</v>
+      </c>
+      <c r="AK69" s="17">
+        <v>1955120.35</v>
+      </c>
+      <c r="AL69" s="17">
+        <v>28601.82</v>
+      </c>
+      <c r="AM69" s="17">
+        <v>170456.3</v>
+      </c>
+      <c r="AN69" s="31">
+        <v>387358.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>32</v>
       </c>
@@ -7699,8 +10066,8 @@
       <c r="F70">
         <v>102.84</v>
       </c>
-      <c r="G70" t="s">
-        <v>181</v>
+      <c r="G70" s="5">
+        <v>570.82000000000005</v>
       </c>
       <c r="H70">
         <v>1359.08</v>
@@ -7726,29 +10093,62 @@
       <c r="O70" t="s">
         <v>182</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="5">
         <v>665347.51</v>
       </c>
-      <c r="R70" s="4">
+      <c r="R70" s="5">
         <v>594380</v>
       </c>
-      <c r="S70" s="4">
+      <c r="S70" s="5">
         <v>2167232.84</v>
       </c>
-      <c r="T70" s="4">
+      <c r="T70" s="5">
         <v>29484.98</v>
       </c>
-      <c r="U70" s="4">
+      <c r="U70" s="5">
         <v>188949.24</v>
       </c>
-      <c r="V70" s="4">
+      <c r="V70" s="6">
         <v>426781.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD70" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE70" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF70" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG70" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH70" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI70" s="22">
+        <v>637606.68000000005</v>
+      </c>
+      <c r="AJ70" s="22">
+        <v>502778</v>
+      </c>
+      <c r="AK70" s="22">
+        <v>2047890.01</v>
+      </c>
+      <c r="AL70" s="22">
+        <v>28729.39</v>
+      </c>
+      <c r="AM70" s="22">
+        <v>178544.38</v>
+      </c>
+      <c r="AN70" s="32">
+        <v>378985.77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>47</v>
       </c>
@@ -7767,8 +10167,8 @@
       <c r="F71">
         <v>102.78</v>
       </c>
-      <c r="G71" t="s">
-        <v>256</v>
+      <c r="G71" s="5">
+        <v>510.87</v>
       </c>
       <c r="H71">
         <v>1216.3599999999999</v>
@@ -7794,29 +10194,62 @@
       <c r="O71" t="s">
         <v>25</v>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="5">
         <v>647770.04</v>
       </c>
-      <c r="R71" s="4">
+      <c r="R71" s="5">
         <v>702496</v>
       </c>
-      <c r="S71" s="4">
+      <c r="S71" s="5">
         <v>2257771.38</v>
       </c>
-      <c r="T71" s="4">
+      <c r="T71" s="5">
         <v>29809.29</v>
       </c>
-      <c r="U71" s="4">
+      <c r="U71" s="5">
         <v>196842.8</v>
       </c>
-      <c r="V71" s="4">
+      <c r="V71" s="6">
         <v>413119.79</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD71" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE71" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG71" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH71" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI71" s="17">
+        <v>684250.3</v>
+      </c>
+      <c r="AJ71" s="17">
+        <v>363666</v>
+      </c>
+      <c r="AK71" s="17">
+        <v>1955421.64</v>
+      </c>
+      <c r="AL71" s="17">
+        <v>28843.18</v>
+      </c>
+      <c r="AM71" s="17">
+        <v>170482.57</v>
+      </c>
+      <c r="AN71" s="31">
+        <v>413287.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>55</v>
       </c>
@@ -7835,8 +10268,8 @@
       <c r="F72">
         <v>102.76</v>
       </c>
-      <c r="G72" t="s">
-        <v>295</v>
+      <c r="G72" s="5">
+        <v>526.51</v>
       </c>
       <c r="H72">
         <v>1253.5899999999999</v>
@@ -7862,29 +10295,62 @@
       <c r="O72" t="s">
         <v>25</v>
       </c>
-      <c r="P72" s="4">
+      <c r="P72" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q72" s="5">
         <v>647400.55000000005</v>
       </c>
-      <c r="R72" s="4">
+      <c r="R72" s="5">
         <v>706295</v>
       </c>
-      <c r="S72" s="4">
+      <c r="S72" s="5">
         <v>2261200.88</v>
       </c>
-      <c r="T72" s="4">
+      <c r="T72" s="5">
         <v>29677.439999999999</v>
       </c>
-      <c r="U72" s="4">
+      <c r="U72" s="5">
         <v>197141.8</v>
       </c>
-      <c r="V72" s="4">
+      <c r="V72" s="6">
         <v>418994.01</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD72" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE72" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF72" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG72" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH72" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI72" s="22">
+        <v>637652.07999999996</v>
+      </c>
+      <c r="AJ72" s="22">
+        <v>546906</v>
+      </c>
+      <c r="AK72" s="22">
+        <v>2092063.41</v>
+      </c>
+      <c r="AL72" s="22">
+        <v>28849.59</v>
+      </c>
+      <c r="AM72" s="22">
+        <v>182395.62</v>
+      </c>
+      <c r="AN72" s="32">
+        <v>383487.91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43</v>
       </c>
@@ -7903,8 +10369,8 @@
       <c r="F73">
         <v>102.74</v>
       </c>
-      <c r="G73" t="s">
-        <v>237</v>
+      <c r="G73" s="5">
+        <v>515.51</v>
       </c>
       <c r="H73">
         <v>1227.4000000000001</v>
@@ -7930,97 +10396,130 @@
       <c r="O73" t="s">
         <v>25</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="5">
         <v>645850.51</v>
       </c>
-      <c r="R73" s="4">
+      <c r="R73" s="5">
         <v>685617</v>
       </c>
-      <c r="S73" s="4">
+      <c r="S73" s="5">
         <v>2238972.85</v>
       </c>
-      <c r="T73" s="4">
+      <c r="T73" s="5">
         <v>29709.54</v>
       </c>
-      <c r="U73" s="4">
+      <c r="U73" s="5">
         <v>195203.86</v>
       </c>
-      <c r="V73" s="4">
+      <c r="V73" s="6">
         <v>413074.46</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="AD73" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE73" s="26">
+        <v>16</v>
+      </c>
+      <c r="AF73" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG73" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH73" s="27">
+        <v>907505.33</v>
+      </c>
+      <c r="AI73" s="27">
+        <v>638459.81000000006</v>
+      </c>
+      <c r="AJ73" s="27">
+        <v>531020</v>
+      </c>
+      <c r="AK73" s="27">
+        <v>2076985.14</v>
+      </c>
+      <c r="AL73" s="27">
+        <v>28877.43</v>
+      </c>
+      <c r="AM73" s="27">
+        <v>181081.03</v>
+      </c>
+      <c r="AN73" s="33">
+        <v>385469.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
         <v>31</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="41">
         <v>4.26</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="41">
         <v>39.67</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="41">
         <v>102.81</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="41">
         <v>102.81</v>
       </c>
-      <c r="G74" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74">
+      <c r="G74" s="42">
+        <v>536.21</v>
+      </c>
+      <c r="H74" s="41">
         <v>1276.69</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="41">
         <v>31.44</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="41">
         <v>31.44</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="41">
         <v>1469.6</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="41">
         <v>19.98</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="41">
         <v>6</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="42">
         <v>907505.33</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="42">
         <v>659054.9</v>
       </c>
-      <c r="R74" s="4">
+      <c r="R74" s="42">
         <v>650185</v>
       </c>
-      <c r="S74" s="4">
+      <c r="S74" s="42">
         <v>2216745.23</v>
       </c>
-      <c r="T74" s="4">
+      <c r="T74" s="42">
         <v>29713.66</v>
       </c>
-      <c r="U74" s="4">
+      <c r="U74" s="42">
         <v>193265.95</v>
       </c>
-      <c r="V74" s="4">
+      <c r="V74" s="43">
         <v>418695.91</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>46</v>
       </c>
@@ -8039,8 +10538,8 @@
       <c r="F75">
         <v>102.85</v>
       </c>
-      <c r="G75" t="s">
-        <v>251</v>
+      <c r="G75" s="5">
+        <v>540.42999999999995</v>
       </c>
       <c r="H75">
         <v>1286.73</v>
@@ -8066,29 +10565,62 @@
       <c r="O75" t="s">
         <v>25</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="5">
         <v>653134.19999999995</v>
       </c>
-      <c r="R75" s="4">
+      <c r="R75" s="5">
         <v>666417</v>
       </c>
-      <c r="S75" s="4">
+      <c r="S75" s="5">
         <v>2227056.5299999998</v>
       </c>
-      <c r="T75" s="4">
+      <c r="T75" s="5">
         <v>29671.81</v>
       </c>
-      <c r="U75" s="4">
+      <c r="U75" s="5">
         <v>194164.94</v>
       </c>
-      <c r="V75" s="4">
+      <c r="V75" s="6">
         <v>421092.11</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ75" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL75" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM75" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN75" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>38</v>
       </c>
@@ -8107,8 +10639,8 @@
       <c r="F76">
         <v>102.81</v>
       </c>
-      <c r="G76" t="s">
-        <v>212</v>
+      <c r="G76" s="5">
+        <v>499.79</v>
       </c>
       <c r="H76">
         <v>1189.99</v>
@@ -8134,34 +10666,310 @@
       <c r="O76" t="s">
         <v>25</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="5">
         <v>907505.33</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="5">
         <v>639476.87</v>
       </c>
-      <c r="R76" s="4">
+      <c r="R76" s="5">
         <v>569284</v>
       </c>
-      <c r="S76" s="4">
+      <c r="S76" s="5">
         <v>2116266.2000000002</v>
       </c>
-      <c r="T76" s="4">
+      <c r="T76" s="5">
         <v>28957.72</v>
       </c>
-      <c r="U76" s="4">
+      <c r="U76" s="5">
         <v>184505.73</v>
       </c>
-      <c r="V76" s="4">
+      <c r="V76" s="6">
         <v>395888.52</v>
       </c>
-    </row>
-    <row r="83" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="AD76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE76" s="11">
+        <v>2.57</v>
+      </c>
+      <c r="AF76" s="11">
+        <v>38.39</v>
+      </c>
+      <c r="AG76" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AH76" s="11">
+        <v>102.74</v>
+      </c>
+      <c r="AI76" s="12">
+        <v>519.47</v>
+      </c>
+      <c r="AJ76" s="13">
+        <v>1236.83</v>
+      </c>
+      <c r="AK76" s="11">
+        <v>30.41</v>
+      </c>
+      <c r="AL76" s="11">
+        <v>30.41</v>
+      </c>
+      <c r="AM76" s="11">
+        <v>1469.6</v>
+      </c>
+      <c r="AN76" s="14">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AD77" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE77" s="16">
+        <v>2.77</v>
+      </c>
+      <c r="AF77" s="16">
+        <v>35.94</v>
+      </c>
+      <c r="AG77" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH77" s="16">
+        <v>102.73</v>
+      </c>
+      <c r="AI77" s="17">
+        <v>485.5</v>
+      </c>
+      <c r="AJ77" s="18">
+        <v>1155.96</v>
+      </c>
+      <c r="AK77" s="16">
+        <v>26.92</v>
+      </c>
+      <c r="AL77" s="16">
+        <v>26.92</v>
+      </c>
+      <c r="AM77" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN77" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AD78" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE78" s="21">
+        <v>2.77</v>
+      </c>
+      <c r="AF78" s="21">
+        <v>36.79</v>
+      </c>
+      <c r="AG78" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH78" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AI78" s="22">
+        <v>496.74</v>
+      </c>
+      <c r="AJ78" s="23">
+        <v>1182.71</v>
+      </c>
+      <c r="AK78" s="21">
+        <v>26.76</v>
+      </c>
+      <c r="AL78" s="21">
+        <v>26.76</v>
+      </c>
+      <c r="AM78" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN78" s="24">
+        <v>19.940000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AD79" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE79" s="16">
+        <v>2.79</v>
+      </c>
+      <c r="AF79" s="16">
+        <v>40.96</v>
+      </c>
+      <c r="AG79" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH79" s="16">
+        <v>102.76</v>
+      </c>
+      <c r="AI79" s="17">
+        <v>554.79999999999995</v>
+      </c>
+      <c r="AJ79" s="18">
+        <v>1320.96</v>
+      </c>
+      <c r="AK79" s="16">
+        <v>34.03</v>
+      </c>
+      <c r="AL79" s="16">
+        <v>34.03</v>
+      </c>
+      <c r="AM79" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN79" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AD80" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE80" s="21">
+        <v>2.81</v>
+      </c>
+      <c r="AF80" s="21">
+        <v>35.86</v>
+      </c>
+      <c r="AG80" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH80" s="21">
+        <v>102.76</v>
+      </c>
+      <c r="AI80" s="22">
+        <v>484.61</v>
+      </c>
+      <c r="AJ80" s="23">
+        <v>1153.8399999999999</v>
+      </c>
+      <c r="AK80" s="21">
+        <v>27.05</v>
+      </c>
+      <c r="AL80" s="21">
+        <v>27.05</v>
+      </c>
+      <c r="AM80" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN80" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="81" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD81" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE81" s="16">
+        <v>2.89</v>
+      </c>
+      <c r="AF81" s="16">
+        <v>35.54</v>
+      </c>
+      <c r="AG81" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH81" s="16">
+        <v>102.77</v>
+      </c>
+      <c r="AI81" s="17">
+        <v>480.44</v>
+      </c>
+      <c r="AJ81" s="18">
+        <v>1143.9100000000001</v>
+      </c>
+      <c r="AK81" s="16">
+        <v>27.21</v>
+      </c>
+      <c r="AL81" s="16">
+        <v>27.21</v>
+      </c>
+      <c r="AM81" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN81" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD82" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE82" s="21">
+        <v>3.01</v>
+      </c>
+      <c r="AF82" s="21">
+        <v>36</v>
+      </c>
+      <c r="AG82" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH82" s="21">
+        <v>102.75</v>
+      </c>
+      <c r="AI82" s="22">
+        <v>486.38</v>
+      </c>
+      <c r="AJ82" s="23">
+        <v>1158.06</v>
+      </c>
+      <c r="AK82" s="21">
+        <v>27.18</v>
+      </c>
+      <c r="AL82" s="21">
+        <v>27.18</v>
+      </c>
+      <c r="AM82" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN82" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="6:40" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="84" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="AD83" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE83" s="16">
+        <v>3.02</v>
+      </c>
+      <c r="AF83" s="16">
+        <v>38.86</v>
+      </c>
+      <c r="AG83" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH83" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AI83" s="17">
+        <v>525.6</v>
+      </c>
+      <c r="AJ83" s="18">
+        <v>1251.42</v>
+      </c>
+      <c r="AK83" s="16">
+        <v>30.73</v>
+      </c>
+      <c r="AL83" s="16">
+        <v>30.73</v>
+      </c>
+      <c r="AM83" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN83" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="6:40" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>186</v>
       </c>
@@ -8174,15 +10982,48 @@
         <v>1120.0999999999999</v>
       </c>
       <c r="I84">
-        <f>H84*365*30</f>
-        <v>12265094.999999998</v>
+        <f>H84*365*20</f>
+        <v>8176729.9999999991</v>
       </c>
       <c r="J84" s="5">
         <f>0.42*I84</f>
-        <v>5151339.8999999994</v>
-      </c>
-    </row>
-    <row r="85" spans="6:20" x14ac:dyDescent="0.25">
+        <v>3434226.5999999996</v>
+      </c>
+      <c r="AD84" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE84" s="21">
+        <v>3.05</v>
+      </c>
+      <c r="AF84" s="21">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="AG84" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH84" s="21">
+        <v>102.74</v>
+      </c>
+      <c r="AI84" s="22">
+        <v>503.84</v>
+      </c>
+      <c r="AJ84" s="23">
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="AK84" s="21">
+        <v>27.27</v>
+      </c>
+      <c r="AL84" s="21">
+        <v>27.27</v>
+      </c>
+      <c r="AM84" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN84" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="6:40" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>22</v>
       </c>
@@ -8195,30 +11036,2201 @@
         <v>1502.79</v>
       </c>
       <c r="I85">
-        <f>H85*365*30</f>
-        <v>16455550.5</v>
+        <f>H85*365*20</f>
+        <v>10970367</v>
       </c>
       <c r="J85" s="5">
         <f>0.42*I85</f>
-        <v>6911331.21</v>
+        <v>4607554.1399999997</v>
       </c>
       <c r="T85" s="4">
         <f>V20-V40</f>
         <v>34515.880000000005</v>
       </c>
-    </row>
-    <row r="88" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="T88" s="4">
+      <c r="AD85" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE85" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="AF85" s="16">
+        <v>36.78</v>
+      </c>
+      <c r="AG85" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH85" s="16">
+        <v>102.78</v>
+      </c>
+      <c r="AI85" s="17">
+        <v>496.4</v>
+      </c>
+      <c r="AJ85" s="18">
+        <v>1181.9000000000001</v>
+      </c>
+      <c r="AK85" s="16">
+        <v>27.45</v>
+      </c>
+      <c r="AL85" s="16">
+        <v>27.45</v>
+      </c>
+      <c r="AM85" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN85" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD86" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE86" s="21">
+        <v>3.21</v>
+      </c>
+      <c r="AF86" s="21">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="AG86" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH86" s="21">
+        <v>102.77</v>
+      </c>
+      <c r="AI86" s="22">
+        <v>528.91</v>
+      </c>
+      <c r="AJ86" s="23">
+        <v>1259.32</v>
+      </c>
+      <c r="AK86" s="21">
+        <v>31</v>
+      </c>
+      <c r="AL86" s="21">
+        <v>31</v>
+      </c>
+      <c r="AM86" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN86" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="6:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD87" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE87" s="26">
+        <v>3.23</v>
+      </c>
+      <c r="AF87" s="26">
+        <v>37.74</v>
+      </c>
+      <c r="AG87" s="26">
+        <v>102.81</v>
+      </c>
+      <c r="AH87" s="26">
+        <v>102.74</v>
+      </c>
+      <c r="AI87" s="27">
+        <v>509.25</v>
+      </c>
+      <c r="AJ87" s="28">
+        <v>1212.49</v>
+      </c>
+      <c r="AK87" s="26">
+        <v>27.82</v>
+      </c>
+      <c r="AL87" s="26">
+        <v>27.82</v>
+      </c>
+      <c r="AM87" s="26">
+        <v>1469.6</v>
+      </c>
+      <c r="AN87" s="29">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="6:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T88" s="44">
         <f>T85*30</f>
         <v>1035476.4000000001</v>
       </c>
     </row>
-    <row r="91" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:40" ht="75" x14ac:dyDescent="0.25">
+      <c r="AD89" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN89" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE90" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF90" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH90" s="12">
+        <v>907505.33</v>
+      </c>
+      <c r="AI90" s="12">
+        <v>654512.62</v>
+      </c>
+      <c r="AJ90" s="12">
+        <v>441685</v>
+      </c>
+      <c r="AK90" s="12">
+        <v>2003702.96</v>
+      </c>
+      <c r="AL90" s="12">
+        <v>28748.89</v>
+      </c>
+      <c r="AM90" s="12">
+        <v>174691.95</v>
+      </c>
+      <c r="AN90" s="30">
+        <v>393046.56</v>
+      </c>
+    </row>
+    <row r="91" spans="6:40" x14ac:dyDescent="0.25">
       <c r="J91" s="5">
         <f>J85-J84</f>
-        <v>1759991.3100000005</v>
-      </c>
-    </row>
+        <v>1173327.54</v>
+      </c>
+      <c r="AD91" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE91" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF91" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG91" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH91" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI91" s="17">
+        <v>639117.44999999995</v>
+      </c>
+      <c r="AJ91" s="17">
+        <v>577724</v>
+      </c>
+      <c r="AK91" s="17">
+        <v>2124346.79</v>
+      </c>
+      <c r="AL91" s="17">
+        <v>29015.41</v>
+      </c>
+      <c r="AM91" s="17">
+        <v>185210.23</v>
+      </c>
+      <c r="AN91" s="31">
+        <v>391434.16</v>
+      </c>
+    </row>
+    <row r="92" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD92" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE92" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF92" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG92" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH92" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI92" s="22">
+        <v>638413</v>
+      </c>
+      <c r="AJ92" s="22">
+        <v>508877</v>
+      </c>
+      <c r="AK92" s="22">
+        <v>2054795.33</v>
+      </c>
+      <c r="AL92" s="22">
+        <v>28665.54</v>
+      </c>
+      <c r="AM92" s="22">
+        <v>179146.42</v>
+      </c>
+      <c r="AN92" s="32">
+        <v>389120.82</v>
+      </c>
+    </row>
+    <row r="93" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD93" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE93" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF93" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG93" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH93" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI93" s="17">
+        <v>670472.17000000004</v>
+      </c>
+      <c r="AJ93" s="17">
+        <v>366737</v>
+      </c>
+      <c r="AK93" s="17">
+        <v>1944714.5</v>
+      </c>
+      <c r="AL93" s="17">
+        <v>28748.31</v>
+      </c>
+      <c r="AM93" s="17">
+        <v>169549.07</v>
+      </c>
+      <c r="AN93" s="31">
+        <v>400800.57</v>
+      </c>
+    </row>
+    <row r="94" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD94" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE94" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF94" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG94" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH94" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI94" s="22">
+        <v>639708.34</v>
+      </c>
+      <c r="AJ94" s="22">
+        <v>591995</v>
+      </c>
+      <c r="AK94" s="22">
+        <v>2139208.67</v>
+      </c>
+      <c r="AL94" s="22">
+        <v>29173.93</v>
+      </c>
+      <c r="AM94" s="22">
+        <v>186505.96</v>
+      </c>
+      <c r="AN94" s="32">
+        <v>392563.33</v>
+      </c>
+    </row>
+    <row r="95" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD95" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE95" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF95" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG95" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH95" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI95" s="17">
+        <v>640393.26</v>
+      </c>
+      <c r="AJ95" s="17">
+        <v>598510</v>
+      </c>
+      <c r="AK95" s="17">
+        <v>2146408.6</v>
+      </c>
+      <c r="AL95" s="17">
+        <v>29230.34</v>
+      </c>
+      <c r="AM95" s="17">
+        <v>187133.68</v>
+      </c>
+      <c r="AN95" s="31">
+        <v>391724.73</v>
+      </c>
+    </row>
+    <row r="96" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="AD96" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE96" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF96" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG96" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH96" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI96" s="22">
+        <v>640275.96</v>
+      </c>
+      <c r="AJ96" s="22">
+        <v>628400</v>
+      </c>
+      <c r="AK96" s="22">
+        <v>2176181.2999999998</v>
+      </c>
+      <c r="AL96" s="22">
+        <v>29360.49</v>
+      </c>
+      <c r="AM96" s="22">
+        <v>189729.4</v>
+      </c>
+      <c r="AN96" s="32">
+        <v>396620.04</v>
+      </c>
+    </row>
+    <row r="97" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD97" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE97" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF97" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG97" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH97" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI97" s="17">
+        <v>655917.93999999994</v>
+      </c>
+      <c r="AJ97" s="17">
+        <v>499942</v>
+      </c>
+      <c r="AK97" s="17">
+        <v>2063365.27</v>
+      </c>
+      <c r="AL97" s="17">
+        <v>29051.42</v>
+      </c>
+      <c r="AM97" s="17">
+        <v>179893.59</v>
+      </c>
+      <c r="AN97" s="31">
+        <v>400787.33</v>
+      </c>
+    </row>
+    <row r="98" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD98" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE98" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF98" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG98" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH98" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI98" s="22">
+        <v>640658.65</v>
+      </c>
+      <c r="AJ98" s="22">
+        <v>571627</v>
+      </c>
+      <c r="AK98" s="22">
+        <v>2119790.98</v>
+      </c>
+      <c r="AL98" s="22">
+        <v>28997.25</v>
+      </c>
+      <c r="AM98" s="22">
+        <v>184813.04</v>
+      </c>
+      <c r="AN98" s="32">
+        <v>397710.96</v>
+      </c>
+    </row>
+    <row r="99" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD99" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE99" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF99" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG99" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH99" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI99" s="17">
+        <v>641445.31000000006</v>
+      </c>
+      <c r="AJ99" s="17">
+        <v>649697</v>
+      </c>
+      <c r="AK99" s="17">
+        <v>2198647.65</v>
+      </c>
+      <c r="AL99" s="17">
+        <v>29393.89</v>
+      </c>
+      <c r="AM99" s="17">
+        <v>191688.12</v>
+      </c>
+      <c r="AN99" s="31">
+        <v>402268.03</v>
+      </c>
+    </row>
+    <row r="100" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD100" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE100" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF100" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG100" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH100" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI100" s="22">
+        <v>657107.38</v>
+      </c>
+      <c r="AJ100" s="22">
+        <v>525241</v>
+      </c>
+      <c r="AK100" s="22">
+        <v>2089853.71</v>
+      </c>
+      <c r="AL100" s="22">
+        <v>29122.83</v>
+      </c>
+      <c r="AM100" s="22">
+        <v>182202.97</v>
+      </c>
+      <c r="AN100" s="32">
+        <v>404379.68</v>
+      </c>
+    </row>
+    <row r="101" spans="30:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD101" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE101" s="26">
+        <v>16</v>
+      </c>
+      <c r="AF101" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG101" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH101" s="27">
+        <v>907505.33</v>
+      </c>
+      <c r="AI101" s="27">
+        <v>643113.37</v>
+      </c>
+      <c r="AJ101" s="27">
+        <v>580826</v>
+      </c>
+      <c r="AK101" s="27">
+        <v>2131444.71</v>
+      </c>
+      <c r="AL101" s="27">
+        <v>29145.32</v>
+      </c>
+      <c r="AM101" s="27">
+        <v>185829.06</v>
+      </c>
+      <c r="AN101" s="33">
+        <v>400849.86</v>
+      </c>
+    </row>
+    <row r="102" spans="30:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="30:40" ht="60" x14ac:dyDescent="0.25">
+      <c r="AD103" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM103" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN103" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD104" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE104" s="11">
+        <v>3.24</v>
+      </c>
+      <c r="AF104" s="11">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AH104" s="11">
+        <v>102.77</v>
+      </c>
+      <c r="AI104" s="12">
+        <v>528.07000000000005</v>
+      </c>
+      <c r="AJ104" s="13">
+        <v>1257.3</v>
+      </c>
+      <c r="AK104" s="11">
+        <v>30.97</v>
+      </c>
+      <c r="AL104" s="11">
+        <v>30.97</v>
+      </c>
+      <c r="AM104" s="11">
+        <v>1469.6</v>
+      </c>
+      <c r="AN104" s="14">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD105" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE105" s="16">
+        <v>3.26</v>
+      </c>
+      <c r="AF105" s="16">
+        <v>36.61</v>
+      </c>
+      <c r="AG105" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH105" s="16">
+        <v>102.82</v>
+      </c>
+      <c r="AI105" s="17">
+        <v>494.42</v>
+      </c>
+      <c r="AJ105" s="18">
+        <v>1177.2</v>
+      </c>
+      <c r="AK105" s="16">
+        <v>27.6</v>
+      </c>
+      <c r="AL105" s="16">
+        <v>27.6</v>
+      </c>
+      <c r="AM105" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN105" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD106" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE106" s="21">
+        <v>3.36</v>
+      </c>
+      <c r="AF106" s="21">
+        <v>39.22</v>
+      </c>
+      <c r="AG106" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH106" s="21">
+        <v>102.75</v>
+      </c>
+      <c r="AI106" s="22">
+        <v>530.29999999999995</v>
+      </c>
+      <c r="AJ106" s="23">
+        <v>1262.6300000000001</v>
+      </c>
+      <c r="AK106" s="21">
+        <v>31.1</v>
+      </c>
+      <c r="AL106" s="21">
+        <v>31.1</v>
+      </c>
+      <c r="AM106" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN106" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD107" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE107" s="16">
+        <v>3.38</v>
+      </c>
+      <c r="AF107" s="16">
+        <v>37.82</v>
+      </c>
+      <c r="AG107" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH107" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AI107" s="17">
+        <v>510.17</v>
+      </c>
+      <c r="AJ107" s="18">
+        <v>1214.7</v>
+      </c>
+      <c r="AK107" s="16">
+        <v>27.59</v>
+      </c>
+      <c r="AL107" s="16">
+        <v>27.59</v>
+      </c>
+      <c r="AM107" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN107" s="19">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="108" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD108" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE108" s="21">
+        <v>3.44</v>
+      </c>
+      <c r="AF108" s="21">
+        <v>36.85</v>
+      </c>
+      <c r="AG108" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH108" s="21">
+        <v>102.8</v>
+      </c>
+      <c r="AI108" s="22">
+        <v>497.63</v>
+      </c>
+      <c r="AJ108" s="23">
+        <v>1184.82</v>
+      </c>
+      <c r="AK108" s="21">
+        <v>27.87</v>
+      </c>
+      <c r="AL108" s="21">
+        <v>27.87</v>
+      </c>
+      <c r="AM108" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN108" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD109" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE109" s="16">
+        <v>3.45</v>
+      </c>
+      <c r="AF109" s="16">
+        <v>39.29</v>
+      </c>
+      <c r="AG109" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH109" s="16">
+        <v>102.74</v>
+      </c>
+      <c r="AI109" s="17">
+        <v>531.13</v>
+      </c>
+      <c r="AJ109" s="18">
+        <v>1264.5899999999999</v>
+      </c>
+      <c r="AK109" s="16">
+        <v>31.14</v>
+      </c>
+      <c r="AL109" s="16">
+        <v>31.14</v>
+      </c>
+      <c r="AM109" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN109" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD110" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE110" s="21">
+        <v>3.51</v>
+      </c>
+      <c r="AF110" s="21">
+        <v>36.69</v>
+      </c>
+      <c r="AG110" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH110" s="21">
+        <v>102.77</v>
+      </c>
+      <c r="AI110" s="22">
+        <v>495.27</v>
+      </c>
+      <c r="AJ110" s="23">
+        <v>1179.22</v>
+      </c>
+      <c r="AK110" s="21">
+        <v>27.49</v>
+      </c>
+      <c r="AL110" s="21">
+        <v>27.49</v>
+      </c>
+      <c r="AM110" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN110" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD111" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE111" s="16">
+        <v>3.52</v>
+      </c>
+      <c r="AF111" s="16">
+        <v>39.24</v>
+      </c>
+      <c r="AG111" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH111" s="16">
+        <v>102.76</v>
+      </c>
+      <c r="AI111" s="17">
+        <v>530.54</v>
+      </c>
+      <c r="AJ111" s="18">
+        <v>1263.18</v>
+      </c>
+      <c r="AK111" s="16">
+        <v>31.16</v>
+      </c>
+      <c r="AL111" s="16">
+        <v>31.16</v>
+      </c>
+      <c r="AM111" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN111" s="19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD112" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE112" s="21">
+        <v>3.58</v>
+      </c>
+      <c r="AF112" s="21">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="AG112" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH112" s="21">
+        <v>102.79</v>
+      </c>
+      <c r="AI112" s="22">
+        <v>499.79</v>
+      </c>
+      <c r="AJ112" s="23">
+        <v>1189.99</v>
+      </c>
+      <c r="AK112" s="21">
+        <v>28.04</v>
+      </c>
+      <c r="AL112" s="21">
+        <v>28.04</v>
+      </c>
+      <c r="AM112" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN112" s="24">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD113" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE113" s="16">
+        <v>3.59</v>
+      </c>
+      <c r="AF113" s="16">
+        <v>37.5</v>
+      </c>
+      <c r="AG113" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH113" s="16">
+        <v>102.84</v>
+      </c>
+      <c r="AI113" s="17">
+        <v>506.28</v>
+      </c>
+      <c r="AJ113" s="18">
+        <v>1205.44</v>
+      </c>
+      <c r="AK113" s="16">
+        <v>27.72</v>
+      </c>
+      <c r="AL113" s="16">
+        <v>27.72</v>
+      </c>
+      <c r="AM113" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN113" s="19">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD114" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE114" s="21">
+        <v>3.61</v>
+      </c>
+      <c r="AF114" s="21">
+        <v>44.09</v>
+      </c>
+      <c r="AG114" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH114" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AI114" s="22">
+        <v>597.05999999999995</v>
+      </c>
+      <c r="AJ114" s="23">
+        <v>1421.57</v>
+      </c>
+      <c r="AK114" s="21">
+        <v>37.93</v>
+      </c>
+      <c r="AL114" s="21">
+        <v>37.93</v>
+      </c>
+      <c r="AM114" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN114" s="24">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="30:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD115" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE115" s="26">
+        <v>3.71</v>
+      </c>
+      <c r="AF115" s="26">
+        <v>38.64</v>
+      </c>
+      <c r="AG115" s="26">
+        <v>102.81</v>
+      </c>
+      <c r="AH115" s="26">
+        <v>102.84</v>
+      </c>
+      <c r="AI115" s="27">
+        <v>521.11</v>
+      </c>
+      <c r="AJ115" s="28">
+        <v>1240.74</v>
+      </c>
+      <c r="AK115" s="26">
+        <v>28.36</v>
+      </c>
+      <c r="AL115" s="26">
+        <v>28.36</v>
+      </c>
+      <c r="AM115" s="26">
+        <v>1469.6</v>
+      </c>
+      <c r="AN115" s="29">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="30:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="30:40" ht="75" x14ac:dyDescent="0.25">
+      <c r="AD117" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE117" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF117" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG117" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH117" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ117" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN117" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD118" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE118" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF118" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG118" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH118" s="12">
+        <v>907505.33</v>
+      </c>
+      <c r="AI118" s="12">
+        <v>656964.98</v>
+      </c>
+      <c r="AJ118" s="12">
+        <v>514126</v>
+      </c>
+      <c r="AK118" s="12">
+        <v>2078596.31</v>
+      </c>
+      <c r="AL118" s="12">
+        <v>29081.59</v>
+      </c>
+      <c r="AM118" s="12">
+        <v>181221.5</v>
+      </c>
+      <c r="AN118" s="30">
+        <v>403047.21</v>
+      </c>
+    </row>
+    <row r="119" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD119" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE119" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF119" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG119" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH119" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI119" s="17">
+        <v>642140.34</v>
+      </c>
+      <c r="AJ119" s="17">
+        <v>581206</v>
+      </c>
+      <c r="AK119" s="17">
+        <v>2130851.67</v>
+      </c>
+      <c r="AL119" s="17">
+        <v>29157.8</v>
+      </c>
+      <c r="AM119" s="17">
+        <v>185777.36</v>
+      </c>
+      <c r="AN119" s="31">
+        <v>395400</v>
+      </c>
+    </row>
+    <row r="120" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD120" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE120" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF120" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG120" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH120" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI120" s="22">
+        <v>657557.02</v>
+      </c>
+      <c r="AJ120" s="22">
+        <v>567187</v>
+      </c>
+      <c r="AK120" s="22">
+        <v>2132249.35</v>
+      </c>
+      <c r="AL120" s="22">
+        <v>29290.26</v>
+      </c>
+      <c r="AM120" s="22">
+        <v>185899.21</v>
+      </c>
+      <c r="AN120" s="32">
+        <v>408750.15</v>
+      </c>
+    </row>
+    <row r="121" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD121" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE121" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF121" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG121" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH121" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI121" s="17">
+        <v>642088.18999999994</v>
+      </c>
+      <c r="AJ121" s="17">
+        <v>637809</v>
+      </c>
+      <c r="AK121" s="17">
+        <v>2187402.52</v>
+      </c>
+      <c r="AL121" s="17">
+        <v>29292.51</v>
+      </c>
+      <c r="AM121" s="17">
+        <v>190707.72</v>
+      </c>
+      <c r="AN121" s="31">
+        <v>406213.46</v>
+      </c>
+    </row>
+    <row r="122" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD122" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE122" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF122" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG122" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH122" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI122" s="22">
+        <v>643305.94999999995</v>
+      </c>
+      <c r="AJ122" s="22">
+        <v>648524</v>
+      </c>
+      <c r="AK122" s="22">
+        <v>2199335.2799999998</v>
+      </c>
+      <c r="AL122" s="22">
+        <v>29503.71</v>
+      </c>
+      <c r="AM122" s="22">
+        <v>191748.07</v>
+      </c>
+      <c r="AN122" s="32">
+        <v>402885.05</v>
+      </c>
+    </row>
+    <row r="123" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD123" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE123" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF123" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG123" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH123" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI123" s="17">
+        <v>657716</v>
+      </c>
+      <c r="AJ123" s="17">
+        <v>570414</v>
+      </c>
+      <c r="AK123" s="17">
+        <v>2135635.33</v>
+      </c>
+      <c r="AL123" s="17">
+        <v>29372.26</v>
+      </c>
+      <c r="AM123" s="17">
+        <v>186194.42</v>
+      </c>
+      <c r="AN123" s="31">
+        <v>409428.01</v>
+      </c>
+    </row>
+    <row r="124" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD124" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE124" s="21">
+        <v>16</v>
+      </c>
+      <c r="AF124" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG124" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH124" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI124" s="22">
+        <v>641657.77</v>
+      </c>
+      <c r="AJ124" s="22">
+        <v>661233</v>
+      </c>
+      <c r="AK124" s="22">
+        <v>2210396.1</v>
+      </c>
+      <c r="AL124" s="22">
+        <v>29453.27</v>
+      </c>
+      <c r="AM124" s="22">
+        <v>192712.4</v>
+      </c>
+      <c r="AN124" s="32">
+        <v>402939.74</v>
+      </c>
+    </row>
+    <row r="125" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD125" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE125" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF125" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG125" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH125" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI125" s="17">
+        <v>657811.21</v>
+      </c>
+      <c r="AJ125" s="17">
+        <v>535406</v>
+      </c>
+      <c r="AK125" s="17">
+        <v>2100722.54</v>
+      </c>
+      <c r="AL125" s="17">
+        <v>29175.72</v>
+      </c>
+      <c r="AM125" s="17">
+        <v>183150.56</v>
+      </c>
+      <c r="AN125" s="31">
+        <v>405971.97</v>
+      </c>
+    </row>
+    <row r="126" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD126" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE126" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF126" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG126" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH126" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI126" s="22">
+        <v>644062.48</v>
+      </c>
+      <c r="AJ126" s="22">
+        <v>665521</v>
+      </c>
+      <c r="AK126" s="22">
+        <v>2217088.81</v>
+      </c>
+      <c r="AL126" s="22">
+        <v>29594.75</v>
+      </c>
+      <c r="AM126" s="22">
+        <v>193295.91</v>
+      </c>
+      <c r="AN126" s="32">
+        <v>405315.6</v>
+      </c>
+    </row>
+    <row r="127" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD127" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE127" s="16">
+        <v>16</v>
+      </c>
+      <c r="AF127" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG127" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH127" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI127" s="17">
+        <v>642636.81000000006</v>
+      </c>
+      <c r="AJ127" s="17">
+        <v>557346</v>
+      </c>
+      <c r="AK127" s="17">
+        <v>2107488.14</v>
+      </c>
+      <c r="AL127" s="17">
+        <v>29042.47</v>
+      </c>
+      <c r="AM127" s="17">
+        <v>183740.42</v>
+      </c>
+      <c r="AN127" s="31">
+        <v>397576.46</v>
+      </c>
+    </row>
+    <row r="128" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD128" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE128" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF128" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG128" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH128" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI128" s="22">
+        <v>687645.58</v>
+      </c>
+      <c r="AJ128" s="22">
+        <v>438930</v>
+      </c>
+      <c r="AK128" s="22">
+        <v>2034080.91</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>29246.66</v>
+      </c>
+      <c r="AM128" s="22">
+        <v>177340.44</v>
+      </c>
+      <c r="AN128" s="32">
+        <v>424514.51</v>
+      </c>
+    </row>
+    <row r="129" spans="30:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD129" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE129" s="26">
+        <v>6</v>
+      </c>
+      <c r="AF129" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG129" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH129" s="27">
+        <v>907505.33</v>
+      </c>
+      <c r="AI129" s="27">
+        <v>645469.93000000005</v>
+      </c>
+      <c r="AJ129" s="27">
+        <v>676945</v>
+      </c>
+      <c r="AK129" s="27">
+        <v>2229920.2599999998</v>
+      </c>
+      <c r="AL129" s="27">
+        <v>29515.24</v>
+      </c>
+      <c r="AM129" s="27">
+        <v>194414.61</v>
+      </c>
+      <c r="AN129" s="33">
+        <v>414134.81</v>
+      </c>
+    </row>
+    <row r="130" spans="30:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="30:40" ht="60" x14ac:dyDescent="0.25">
+      <c r="AD131" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE131" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ131" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK131" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL131" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM131" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN131" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE132" s="11">
+        <v>3.79</v>
+      </c>
+      <c r="AF132" s="11">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="AG132" s="11">
+        <v>102.81</v>
+      </c>
+      <c r="AH132" s="11">
+        <v>102.74</v>
+      </c>
+      <c r="AI132" s="12">
+        <v>520.80999999999995</v>
+      </c>
+      <c r="AJ132" s="13">
+        <v>1240.03</v>
+      </c>
+      <c r="AK132" s="11">
+        <v>28.48</v>
+      </c>
+      <c r="AL132" s="11">
+        <v>28.48</v>
+      </c>
+      <c r="AM132" s="11">
+        <v>1469.6</v>
+      </c>
+      <c r="AN132" s="14">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD133" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE133" s="16">
+        <v>3.94</v>
+      </c>
+      <c r="AF133" s="16">
+        <v>40.32</v>
+      </c>
+      <c r="AG133" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH133" s="16">
+        <v>102.83</v>
+      </c>
+      <c r="AI133" s="17">
+        <v>544.79</v>
+      </c>
+      <c r="AJ133" s="18">
+        <v>1297.1199999999999</v>
+      </c>
+      <c r="AK133" s="16">
+        <v>31.98</v>
+      </c>
+      <c r="AL133" s="16">
+        <v>31.98</v>
+      </c>
+      <c r="AM133" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN133" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="134" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD134" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE134" s="21">
+        <v>4.01</v>
+      </c>
+      <c r="AF134" s="21">
+        <v>42.29</v>
+      </c>
+      <c r="AG134" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH134" s="21">
+        <v>102.84</v>
+      </c>
+      <c r="AI134" s="22">
+        <v>570.82000000000005</v>
+      </c>
+      <c r="AJ134" s="23">
+        <v>1359.08</v>
+      </c>
+      <c r="AK134" s="21">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="AL134" s="21">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="AM134" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN134" s="24">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD135" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE135" s="16">
+        <v>4.01</v>
+      </c>
+      <c r="AF135" s="16">
+        <v>37.86</v>
+      </c>
+      <c r="AG135" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH135" s="16">
+        <v>102.78</v>
+      </c>
+      <c r="AI135" s="17">
+        <v>510.87</v>
+      </c>
+      <c r="AJ135" s="18">
+        <v>1216.3599999999999</v>
+      </c>
+      <c r="AK135" s="16">
+        <v>28.88</v>
+      </c>
+      <c r="AL135" s="16">
+        <v>28.88</v>
+      </c>
+      <c r="AM135" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN135" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="136" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD136" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE136" s="21">
+        <v>4.08</v>
+      </c>
+      <c r="AF136" s="21">
+        <v>39.06</v>
+      </c>
+      <c r="AG136" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH136" s="21">
+        <v>102.76</v>
+      </c>
+      <c r="AI136" s="22">
+        <v>526.51</v>
+      </c>
+      <c r="AJ136" s="23">
+        <v>1253.5899999999999</v>
+      </c>
+      <c r="AK136" s="21">
+        <v>28.8</v>
+      </c>
+      <c r="AL136" s="21">
+        <v>28.8</v>
+      </c>
+      <c r="AM136" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN136" s="24">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="137" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD137" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE137" s="16">
+        <v>4.17</v>
+      </c>
+      <c r="AF137" s="16">
+        <v>38.21</v>
+      </c>
+      <c r="AG137" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH137" s="16">
+        <v>102.74</v>
+      </c>
+      <c r="AI137" s="17">
+        <v>515.51</v>
+      </c>
+      <c r="AJ137" s="18">
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="AK137" s="16">
+        <v>28.45</v>
+      </c>
+      <c r="AL137" s="16">
+        <v>28.45</v>
+      </c>
+      <c r="AM137" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN137" s="19">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="138" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD138" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE138" s="21">
+        <v>4.26</v>
+      </c>
+      <c r="AF138" s="21">
+        <v>39.67</v>
+      </c>
+      <c r="AG138" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AH138" s="21">
+        <v>102.81</v>
+      </c>
+      <c r="AI138" s="22">
+        <v>536.21</v>
+      </c>
+      <c r="AJ138" s="23">
+        <v>1276.69</v>
+      </c>
+      <c r="AK138" s="21">
+        <v>31.44</v>
+      </c>
+      <c r="AL138" s="21">
+        <v>31.44</v>
+      </c>
+      <c r="AM138" s="21">
+        <v>1469.6</v>
+      </c>
+      <c r="AN138" s="24">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="139" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD139" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE139" s="16">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AF139" s="16">
+        <v>40.08</v>
+      </c>
+      <c r="AG139" s="16">
+        <v>102.81</v>
+      </c>
+      <c r="AH139" s="16">
+        <v>102.85</v>
+      </c>
+      <c r="AI139" s="17">
+        <v>540.42999999999995</v>
+      </c>
+      <c r="AJ139" s="18">
+        <v>1286.73</v>
+      </c>
+      <c r="AK139" s="16">
+        <v>30.1</v>
+      </c>
+      <c r="AL139" s="16">
+        <v>30.1</v>
+      </c>
+      <c r="AM139" s="16">
+        <v>1469.6</v>
+      </c>
+      <c r="AN139" s="19">
+        <v>20.059999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="30:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD140" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE140" s="35">
+        <v>5.15</v>
+      </c>
+      <c r="AF140" s="35">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="AG140" s="35">
+        <v>102.81</v>
+      </c>
+      <c r="AH140" s="35">
+        <v>102.81</v>
+      </c>
+      <c r="AI140" s="36">
+        <v>499.79</v>
+      </c>
+      <c r="AJ140" s="37">
+        <v>1189.99</v>
+      </c>
+      <c r="AK140" s="35">
+        <v>27</v>
+      </c>
+      <c r="AL140" s="35">
+        <v>27</v>
+      </c>
+      <c r="AM140" s="35">
+        <v>1469.6</v>
+      </c>
+      <c r="AN140" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="30:40" s="41" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="30:40" ht="75" x14ac:dyDescent="0.25">
+      <c r="AD142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE142" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF142" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH142" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN142" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE143" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF143" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG143" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH143" s="12">
+        <v>907505.33</v>
+      </c>
+      <c r="AI143" s="12">
+        <v>645989.74</v>
+      </c>
+      <c r="AJ143" s="12">
+        <v>685878</v>
+      </c>
+      <c r="AK143" s="12">
+        <v>2239373.08</v>
+      </c>
+      <c r="AL143" s="12">
+        <v>29564.06</v>
+      </c>
+      <c r="AM143" s="12">
+        <v>195238.75</v>
+      </c>
+      <c r="AN143" s="30">
+        <v>414899.57</v>
+      </c>
+    </row>
+    <row r="144" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD144" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE144" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF144" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG144" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH144" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI144" s="17">
+        <v>661434.48</v>
+      </c>
+      <c r="AJ144" s="17">
+        <v>612291</v>
+      </c>
+      <c r="AK144" s="17">
+        <v>2181230.8199999998</v>
+      </c>
+      <c r="AL144" s="17">
+        <v>29546.799999999999</v>
+      </c>
+      <c r="AM144" s="17">
+        <v>190169.64</v>
+      </c>
+      <c r="AN144" s="31">
+        <v>418565.5</v>
+      </c>
+    </row>
+    <row r="145" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD145" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE145" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF145" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG145" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH145" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI145" s="22">
+        <v>665347.51</v>
+      </c>
+      <c r="AJ145" s="22">
+        <v>594380</v>
+      </c>
+      <c r="AK145" s="22">
+        <v>2167232.84</v>
+      </c>
+      <c r="AL145" s="22">
+        <v>29484.98</v>
+      </c>
+      <c r="AM145" s="22">
+        <v>188949.24</v>
+      </c>
+      <c r="AN145" s="32">
+        <v>426781.83</v>
+      </c>
+    </row>
+    <row r="146" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD146" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE146" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF146" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG146" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH146" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI146" s="17">
+        <v>647770.04</v>
+      </c>
+      <c r="AJ146" s="17">
+        <v>702496</v>
+      </c>
+      <c r="AK146" s="17">
+        <v>2257771.38</v>
+      </c>
+      <c r="AL146" s="17">
+        <v>29809.29</v>
+      </c>
+      <c r="AM146" s="17">
+        <v>196842.8</v>
+      </c>
+      <c r="AN146" s="31">
+        <v>413119.79</v>
+      </c>
+    </row>
+    <row r="147" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD147" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE147" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF147" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG147" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH147" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI147" s="22">
+        <v>647400.55000000005</v>
+      </c>
+      <c r="AJ147" s="22">
+        <v>706295</v>
+      </c>
+      <c r="AK147" s="22">
+        <v>2261200.88</v>
+      </c>
+      <c r="AL147" s="22">
+        <v>29677.439999999999</v>
+      </c>
+      <c r="AM147" s="22">
+        <v>197141.8</v>
+      </c>
+      <c r="AN147" s="32">
+        <v>418994.01</v>
+      </c>
+    </row>
+    <row r="148" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD148" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE148" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF148" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG148" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH148" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI148" s="17">
+        <v>645850.51</v>
+      </c>
+      <c r="AJ148" s="17">
+        <v>685617</v>
+      </c>
+      <c r="AK148" s="17">
+        <v>2238972.85</v>
+      </c>
+      <c r="AL148" s="17">
+        <v>29709.54</v>
+      </c>
+      <c r="AM148" s="17">
+        <v>195203.86</v>
+      </c>
+      <c r="AN148" s="31">
+        <v>413074.46</v>
+      </c>
+    </row>
+    <row r="149" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD149" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE149" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF149" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG149" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH149" s="22">
+        <v>907505.33</v>
+      </c>
+      <c r="AI149" s="22">
+        <v>659054.9</v>
+      </c>
+      <c r="AJ149" s="22">
+        <v>650185</v>
+      </c>
+      <c r="AK149" s="22">
+        <v>2216745.23</v>
+      </c>
+      <c r="AL149" s="22">
+        <v>29713.66</v>
+      </c>
+      <c r="AM149" s="22">
+        <v>193265.95</v>
+      </c>
+      <c r="AN149" s="32">
+        <v>418695.91</v>
+      </c>
+    </row>
+    <row r="150" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD150" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE150" s="16">
+        <v>6</v>
+      </c>
+      <c r="AF150" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG150" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH150" s="17">
+        <v>907505.33</v>
+      </c>
+      <c r="AI150" s="17">
+        <v>653134.19999999995</v>
+      </c>
+      <c r="AJ150" s="17">
+        <v>666417</v>
+      </c>
+      <c r="AK150" s="17">
+        <v>2227056.5299999998</v>
+      </c>
+      <c r="AL150" s="17">
+        <v>29671.81</v>
+      </c>
+      <c r="AM150" s="17">
+        <v>194164.94</v>
+      </c>
+      <c r="AN150" s="31">
+        <v>421092.11</v>
+      </c>
+    </row>
+    <row r="151" spans="30:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD151" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE151" s="35">
+        <v>16</v>
+      </c>
+      <c r="AF151" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG151" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH151" s="36">
+        <v>907505.33</v>
+      </c>
+      <c r="AI151" s="36">
+        <v>639476.87</v>
+      </c>
+      <c r="AJ151" s="36">
+        <v>569284</v>
+      </c>
+      <c r="AK151" s="36">
+        <v>2116266.2000000002</v>
+      </c>
+      <c r="AL151" s="36">
+        <v>28957.72</v>
+      </c>
+      <c r="AM151" s="36">
+        <v>184505.73</v>
+      </c>
+      <c r="AN151" s="39">
+        <v>395888.52</v>
+      </c>
+    </row>
+    <row r="152" spans="30:40" s="41" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -8229,7 +13241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8855,7 +13867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9481,7 +14493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10127,7 +15139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10793,7 +15805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11459,7 +16471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11985,7 +16997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12611,7 +17623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13137,7 +18149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13743,7 +18755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14349,7 +19361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14875,7 +19887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15421,7 +20433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16047,7 +21059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16673,7 +21685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17239,7 +22251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17825,7 +22837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18431,7 +23443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19057,7 +24069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19723,7 +24735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20349,7 +25361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21035,7 +26047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21561,7 +26573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22227,7 +27239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22873,7 +27885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23539,7 +28551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24245,7 +29257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24951,7 +29963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -25539,7 +30551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26225,7 +31237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26931,7 +31943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27637,7 +32649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28323,7 +33335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -28869,7 +33881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29575,7 +34587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30281,7 +35293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30967,7 +35979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31653,7 +36665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32319,7 +37331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -33105,7 +38117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -33891,7 +38903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -34677,7 +39689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35443,7 +40455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36249,7 +41261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36775,7 +41787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37401,7 +42413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38027,7 +43039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38693,7 +43705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -39419,7 +44431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40165,7 +45177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40911,7 +45923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41697,7 +46709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42483,7 +47495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -43209,7 +48221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -43755,7 +48767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44283,7 +49295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -44875,7 +49887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
